--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6444" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -1957,6 +1957,381 @@
   </si>
   <si>
     <t>第二班 - 1400米 - (100-80) - 草地 - "C" 賽道 - 長連山讓賽</t>
+  </si>
+  <si>
+    <t>2021/04/14</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 草地 - "B" 賽道 - 胡桃木讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "B" 賽道 - 洋松讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "B" 賽道 - 雲杉讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "B" 賽道 - 柏樹讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "B" 賽道 - 蒲葵讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1800米 - (100-80) - 草地 - "B" 賽道 - 雪松讓賽</t>
+  </si>
+  <si>
+    <t>2021/04/17</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C+3" 賽道 - 沙福讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C+3" 賽道 - 歌和老讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 全天候跑道 - 多實讓賽</t>
+  </si>
+  <si>
+    <t>班德禮</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 草地 - "C+3" 賽道 - 森麻實讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 全天候跑道 - 羅福讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 全天候跑道 - 金巴倫讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 全天候跑道 - 雅息士讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C+3" 賽道 - 根德讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (100-80) - 全天候跑道 - 安域讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C+3" 賽道 - 德雲讓賽</t>
+  </si>
+  <si>
+    <t>2021/04/18</t>
+  </si>
+  <si>
+    <t>2021/04/21</t>
+  </si>
+  <si>
+    <t>第三班 - 2200米 - (80-60) - 草地 - "C" 賽道 - 砵甸乍讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C" 賽道 - 都爹利讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C" 賽道 - 愛丁堡讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 花園讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C" 賽道 - 畢打讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 皇后大道中讓賽</t>
+  </si>
+  <si>
+    <t>2021/04/25</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "A" 賽道 - 富衛保險富強讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 富衛保險長青讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 富衛保險工銀亞洲讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1600米 - (80-60) - 草地 - "A" 賽道 - 富衛保險交通銀行讓賽</t>
+  </si>
+  <si>
+    <t>國際一級賽 - 1200米 - 草地 - "A" 賽道 - 主席短途獎</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "A" 賽道 - 富衛保險建行亞洲讓賽</t>
+  </si>
+  <si>
+    <t>國際一級賽 - 1600米 - 草地 - "A" 賽道 - 富衛保險冠軍一哩賽</t>
+  </si>
+  <si>
+    <t>國際一級賽 - 2000米 - 草地 - "A" 賽道 - 富衛保險女皇盃</t>
+  </si>
+  <si>
+    <t>松山弘平</t>
+  </si>
+  <si>
+    <t>第二班 - 1600米 - (105-80) - 草地 - "A" 賽道 - 富衛保險ACT王者讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (105-80) - 草地 - "A" 賽道 - 富衛保險傳奇讓賽</t>
+  </si>
+  <si>
+    <t>2021/04/28</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "C+3" 賽道 - 列堤頓讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C+3" 賽道 - 干德讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 2200米 - (60-40) - 草地 - "C+3" 賽道 - 旭龢讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C+3" 賽道 - 克頓讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C+3" 賽道 - 般咸讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "C+3" 賽道 - 卑利士讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C+3" 賽道 - 巴丙頓讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/01</t>
+  </si>
+  <si>
+    <t>2021/05/02</t>
+  </si>
+  <si>
+    <t>新馬賽 - 1000米 - 草地 - "B" 賽道 - 淘金者平磅賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "B" 賽道 - 曼島讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 2000米 - (40-0) - 草地 - "B" 賽道 - 奇貨讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "B" 賽道 - 萬利廄讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1600米 - (60-40) - 草地 - "B" 賽道 - 諾曼征服讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "B" 賽道 - 蒙魯連平讓賽</t>
+  </si>
+  <si>
+    <t>國際三級賽 - 2400米 - 草地 - "B" 賽道 - 皇太后紀念盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "B" 賽道 - 果敢精神讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1800米 - (80-60) - 草地 - "B" 賽道 - 寶島讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "B" 賽道 - 英奇阿倫讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/05</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 馬頭圍讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "A" 賽道 - 九龍城讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "A" 賽道 - 馬頭角讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "A" 賽道 - 土瓜灣讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 紅磡灣讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (100-80) - 草地 - "A" 賽道 - 鶴園讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/08</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 月桂讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C" 賽道 - 苿莉讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1400米 - (40-0) - 草地 - "C" 賽道 - 蓮花讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 草地 - "C" 賽道 - 繡球花讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C" 賽道 - 歐石楠讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 鳳仙花讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 全天候跑道 - 洋甘菊讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C" 賽道 - 雞冠花讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1650米 - (105-80) - 全天候跑道 - 康乃馨讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/09</t>
+  </si>
+  <si>
+    <t>2021/05/12</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 全天候跑道 - 東龍洲讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 全天候跑道 - 橫瀾島讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C+3" 賽道 - 塔門讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 全天候跑道 - 果洲群島讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 全天候跑道 - 吊鐘洲讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C+3" 賽道 - 滘西洲讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 全天候跑道 - 吉澳洲讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/16</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 全天候跑道 - 黃寶石讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C+3" 賽道 - 藍寶石讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C+3" 賽道 - 紅寶石讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C+3" 賽道 - 橙石榴讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C+3" 賽道 - 綠寶石讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1000米 - (100-80) - 草地 - "C+3" 賽道 - 紫晶讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1600米 - (80-60) - 草地 - "C+3" 賽道 - 青金石讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1400米 - (100-80) - 草地 - "C+3" 賽道 - 水晶讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/19</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "B" 賽道 - 丹山河讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "B" 賽道 - 南涌河讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "B" 賽道 - 山貝河讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "B" 賽道 - 大城石澗讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "B" 賽道 - 錦田河讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1800米 - (80-60) - 草地 - "B" 賽道 - 林村河讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/22</t>
+  </si>
+  <si>
+    <t>2021/05/23</t>
+  </si>
+  <si>
+    <t>新馬賽 - 1200米 - 草地 - "A" 賽道 - 巴基之星平磅賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1400米 - (40-0) - 草地 - "A" 賽道 - 計得精彩讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 有性格讓賽</t>
+  </si>
+  <si>
+    <t>國際三級賽 - 1200米 - 草地 - "A" 賽道 - 沙田銀瓶（讓賽）</t>
+  </si>
+  <si>
+    <t>第四班 - 2000米 - (60-40) - 草地 - "A" 賽道 - 爆冷讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1600米 - (60-40) - 草地 - "A" 賽道 - 將男讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "A" 賽道 - 爪皇凌雨讓賽</t>
+  </si>
+  <si>
+    <t>國際一級賽 - 2400米 - 草地 - "A" 賽道 - 渣打冠軍暨遮打盃</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "A" 賽道 - 原居民讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "A" 賽道 - 奔騰讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 翠河讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/26</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C" 賽道 - 威非路讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "C" 賽道 - 麥連讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 糖水讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C" 賽道 - 華蘭讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C" 賽道 - 渣華讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1650米 - (100-80) - 草地 - "C" 賽道 - 堡壘讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 馬寶讓賽</t>
+  </si>
+  <si>
+    <t>2021/05/29</t>
+  </si>
+  <si>
+    <t>2021/05/30</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 草地 - "B" 賽道 - 慈雲山讓賽</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I585"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19241,6 +19616,3613 @@
         <v>7</v>
       </c>
     </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>647</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586" t="s">
+        <v>648</v>
+      </c>
+      <c r="D586" t="s">
+        <v>8</v>
+      </c>
+      <c r="E586" t="s">
+        <v>55</v>
+      </c>
+      <c r="F586" t="s">
+        <v>35</v>
+      </c>
+      <c r="G586" t="s">
+        <v>195</v>
+      </c>
+      <c r="H586" t="s">
+        <v>15</v>
+      </c>
+      <c r="I586" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" t="s">
+        <v>647</v>
+      </c>
+      <c r="B587" t="s">
+        <v>12</v>
+      </c>
+      <c r="C587" t="s">
+        <v>648</v>
+      </c>
+      <c r="D587" t="s">
+        <v>8</v>
+      </c>
+      <c r="E587" t="s">
+        <v>138</v>
+      </c>
+      <c r="F587" t="s">
+        <v>23</v>
+      </c>
+      <c r="G587" t="s">
+        <v>76</v>
+      </c>
+      <c r="H587" t="s">
+        <v>35</v>
+      </c>
+      <c r="I587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" t="s">
+        <v>647</v>
+      </c>
+      <c r="B588" t="s">
+        <v>19</v>
+      </c>
+      <c r="C588" t="s">
+        <v>649</v>
+      </c>
+      <c r="D588" t="s">
+        <v>17</v>
+      </c>
+      <c r="E588" t="s">
+        <v>16</v>
+      </c>
+      <c r="F588" t="s">
+        <v>21</v>
+      </c>
+      <c r="G588" t="s">
+        <v>55</v>
+      </c>
+      <c r="H588" t="s">
+        <v>40</v>
+      </c>
+      <c r="I588" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>647</v>
+      </c>
+      <c r="B589" t="s">
+        <v>26</v>
+      </c>
+      <c r="C589" t="s">
+        <v>649</v>
+      </c>
+      <c r="D589" t="s">
+        <v>40</v>
+      </c>
+      <c r="E589" t="s">
+        <v>31</v>
+      </c>
+      <c r="F589" t="s">
+        <v>17</v>
+      </c>
+      <c r="G589" t="s">
+        <v>16</v>
+      </c>
+      <c r="H589" t="s">
+        <v>23</v>
+      </c>
+      <c r="I589" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>647</v>
+      </c>
+      <c r="B590" t="s">
+        <v>27</v>
+      </c>
+      <c r="C590" t="s">
+        <v>650</v>
+      </c>
+      <c r="D590" t="s">
+        <v>6</v>
+      </c>
+      <c r="E590" t="s">
+        <v>7</v>
+      </c>
+      <c r="F590" t="s">
+        <v>29</v>
+      </c>
+      <c r="G590" t="s">
+        <v>16</v>
+      </c>
+      <c r="H590" t="s">
+        <v>21</v>
+      </c>
+      <c r="I590" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>647</v>
+      </c>
+      <c r="B591" t="s">
+        <v>32</v>
+      </c>
+      <c r="C591" t="s">
+        <v>651</v>
+      </c>
+      <c r="D591" t="s">
+        <v>29</v>
+      </c>
+      <c r="E591" t="s">
+        <v>7</v>
+      </c>
+      <c r="F591" t="s">
+        <v>17</v>
+      </c>
+      <c r="G591" t="s">
+        <v>16</v>
+      </c>
+      <c r="H591" t="s">
+        <v>40</v>
+      </c>
+      <c r="I591" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>647</v>
+      </c>
+      <c r="B592" t="s">
+        <v>37</v>
+      </c>
+      <c r="C592" t="s">
+        <v>651</v>
+      </c>
+      <c r="D592" t="s">
+        <v>21</v>
+      </c>
+      <c r="E592" t="s">
+        <v>16</v>
+      </c>
+      <c r="F592" t="s">
+        <v>6</v>
+      </c>
+      <c r="G592" t="s">
+        <v>36</v>
+      </c>
+      <c r="H592" t="s">
+        <v>10</v>
+      </c>
+      <c r="I592" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>647</v>
+      </c>
+      <c r="B593" t="s">
+        <v>41</v>
+      </c>
+      <c r="C593" t="s">
+        <v>652</v>
+      </c>
+      <c r="D593" t="s">
+        <v>6</v>
+      </c>
+      <c r="E593" t="s">
+        <v>18</v>
+      </c>
+      <c r="F593" t="s">
+        <v>40</v>
+      </c>
+      <c r="G593" t="s">
+        <v>24</v>
+      </c>
+      <c r="H593" t="s">
+        <v>8</v>
+      </c>
+      <c r="I593" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>647</v>
+      </c>
+      <c r="B594" t="s">
+        <v>44</v>
+      </c>
+      <c r="C594" t="s">
+        <v>653</v>
+      </c>
+      <c r="D594" t="s">
+        <v>50</v>
+      </c>
+      <c r="E594" t="s">
+        <v>16</v>
+      </c>
+      <c r="F594" t="s">
+        <v>35</v>
+      </c>
+      <c r="G594" t="s">
+        <v>24</v>
+      </c>
+      <c r="H594" t="s">
+        <v>21</v>
+      </c>
+      <c r="I594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" t="s">
+        <v>654</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595" t="s">
+        <v>655</v>
+      </c>
+      <c r="D595" t="s">
+        <v>40</v>
+      </c>
+      <c r="E595" t="s">
+        <v>16</v>
+      </c>
+      <c r="F595" t="s">
+        <v>6</v>
+      </c>
+      <c r="G595" t="s">
+        <v>36</v>
+      </c>
+      <c r="H595" t="s">
+        <v>35</v>
+      </c>
+      <c r="I595" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" t="s">
+        <v>654</v>
+      </c>
+      <c r="B596" t="s">
+        <v>12</v>
+      </c>
+      <c r="C596" t="s">
+        <v>656</v>
+      </c>
+      <c r="D596" t="s">
+        <v>40</v>
+      </c>
+      <c r="E596" t="s">
+        <v>22</v>
+      </c>
+      <c r="F596" t="s">
+        <v>29</v>
+      </c>
+      <c r="G596" t="s">
+        <v>16</v>
+      </c>
+      <c r="H596" t="s">
+        <v>50</v>
+      </c>
+      <c r="I596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>654</v>
+      </c>
+      <c r="B597" t="s">
+        <v>19</v>
+      </c>
+      <c r="C597" t="s">
+        <v>657</v>
+      </c>
+      <c r="D597" t="s">
+        <v>40</v>
+      </c>
+      <c r="E597" t="s">
+        <v>11</v>
+      </c>
+      <c r="F597" t="s">
+        <v>35</v>
+      </c>
+      <c r="G597" t="s">
+        <v>7</v>
+      </c>
+      <c r="H597" t="s">
+        <v>30</v>
+      </c>
+      <c r="I597" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>654</v>
+      </c>
+      <c r="B598" t="s">
+        <v>26</v>
+      </c>
+      <c r="C598" t="s">
+        <v>659</v>
+      </c>
+      <c r="D598" t="s">
+        <v>50</v>
+      </c>
+      <c r="E598" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" t="s">
+        <v>46</v>
+      </c>
+      <c r="G598" t="s">
+        <v>55</v>
+      </c>
+      <c r="H598" t="s">
+        <v>6</v>
+      </c>
+      <c r="I598" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>654</v>
+      </c>
+      <c r="B599" t="s">
+        <v>27</v>
+      </c>
+      <c r="C599" t="s">
+        <v>660</v>
+      </c>
+      <c r="D599" t="s">
+        <v>15</v>
+      </c>
+      <c r="E599" t="s">
+        <v>31</v>
+      </c>
+      <c r="F599" t="s">
+        <v>17</v>
+      </c>
+      <c r="G599" t="s">
+        <v>18</v>
+      </c>
+      <c r="H599" t="s">
+        <v>21</v>
+      </c>
+      <c r="I599" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>654</v>
+      </c>
+      <c r="B600" t="s">
+        <v>32</v>
+      </c>
+      <c r="C600" t="s">
+        <v>661</v>
+      </c>
+      <c r="D600" t="s">
+        <v>29</v>
+      </c>
+      <c r="E600" t="s">
+        <v>39</v>
+      </c>
+      <c r="F600" t="s">
+        <v>10</v>
+      </c>
+      <c r="G600" t="s">
+        <v>7</v>
+      </c>
+      <c r="H600" t="s">
+        <v>40</v>
+      </c>
+      <c r="I600" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>654</v>
+      </c>
+      <c r="B601" t="s">
+        <v>37</v>
+      </c>
+      <c r="C601" t="s">
+        <v>662</v>
+      </c>
+      <c r="D601" t="s">
+        <v>8</v>
+      </c>
+      <c r="E601" t="s">
+        <v>76</v>
+      </c>
+      <c r="F601" t="s">
+        <v>15</v>
+      </c>
+      <c r="G601" t="s">
+        <v>11</v>
+      </c>
+      <c r="H601" t="s">
+        <v>50</v>
+      </c>
+      <c r="I601" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>654</v>
+      </c>
+      <c r="B602" t="s">
+        <v>41</v>
+      </c>
+      <c r="C602" t="s">
+        <v>663</v>
+      </c>
+      <c r="D602" t="s">
+        <v>35</v>
+      </c>
+      <c r="E602" t="s">
+        <v>195</v>
+      </c>
+      <c r="F602" t="s">
+        <v>6</v>
+      </c>
+      <c r="G602" t="s">
+        <v>16</v>
+      </c>
+      <c r="H602" t="s">
+        <v>29</v>
+      </c>
+      <c r="I602" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" t="s">
+        <v>654</v>
+      </c>
+      <c r="B603" t="s">
+        <v>44</v>
+      </c>
+      <c r="C603" t="s">
+        <v>664</v>
+      </c>
+      <c r="D603" t="s">
+        <v>21</v>
+      </c>
+      <c r="E603" t="s">
+        <v>34</v>
+      </c>
+      <c r="F603" t="s">
+        <v>8</v>
+      </c>
+      <c r="G603" t="s">
+        <v>92</v>
+      </c>
+      <c r="H603" t="s">
+        <v>29</v>
+      </c>
+      <c r="I603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" t="s">
+        <v>654</v>
+      </c>
+      <c r="B604" t="s">
+        <v>48</v>
+      </c>
+      <c r="C604" t="s">
+        <v>665</v>
+      </c>
+      <c r="D604" t="s">
+        <v>40</v>
+      </c>
+      <c r="E604" t="s">
+        <v>36</v>
+      </c>
+      <c r="F604" t="s">
+        <v>17</v>
+      </c>
+      <c r="G604" t="s">
+        <v>16</v>
+      </c>
+      <c r="H604" t="s">
+        <v>50</v>
+      </c>
+      <c r="I604" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" t="s">
+        <v>667</v>
+      </c>
+      <c r="B605" t="s">
+        <v>4</v>
+      </c>
+      <c r="C605" t="s">
+        <v>668</v>
+      </c>
+      <c r="D605" t="s">
+        <v>21</v>
+      </c>
+      <c r="E605" t="s">
+        <v>658</v>
+      </c>
+      <c r="F605" t="s">
+        <v>29</v>
+      </c>
+      <c r="G605" t="s">
+        <v>18</v>
+      </c>
+      <c r="H605" t="s">
+        <v>15</v>
+      </c>
+      <c r="I605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" t="s">
+        <v>667</v>
+      </c>
+      <c r="B606" t="s">
+        <v>12</v>
+      </c>
+      <c r="C606" t="s">
+        <v>669</v>
+      </c>
+      <c r="D606" t="s">
+        <v>17</v>
+      </c>
+      <c r="E606" t="s">
+        <v>34</v>
+      </c>
+      <c r="F606" t="s">
+        <v>10</v>
+      </c>
+      <c r="G606" t="s">
+        <v>16</v>
+      </c>
+      <c r="H606" t="s">
+        <v>21</v>
+      </c>
+      <c r="I606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" t="s">
+        <v>667</v>
+      </c>
+      <c r="B607" t="s">
+        <v>19</v>
+      </c>
+      <c r="C607" t="s">
+        <v>669</v>
+      </c>
+      <c r="D607" t="s">
+        <v>50</v>
+      </c>
+      <c r="E607" t="s">
+        <v>16</v>
+      </c>
+      <c r="F607" t="s">
+        <v>15</v>
+      </c>
+      <c r="G607" t="s">
+        <v>18</v>
+      </c>
+      <c r="H607" t="s">
+        <v>35</v>
+      </c>
+      <c r="I607" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" t="s">
+        <v>667</v>
+      </c>
+      <c r="B608" t="s">
+        <v>26</v>
+      </c>
+      <c r="C608" t="s">
+        <v>670</v>
+      </c>
+      <c r="D608" t="s">
+        <v>17</v>
+      </c>
+      <c r="E608" t="s">
+        <v>16</v>
+      </c>
+      <c r="F608" t="s">
+        <v>6</v>
+      </c>
+      <c r="G608" t="s">
+        <v>39</v>
+      </c>
+      <c r="H608" t="s">
+        <v>29</v>
+      </c>
+      <c r="I608" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" t="s">
+        <v>667</v>
+      </c>
+      <c r="B609" t="s">
+        <v>27</v>
+      </c>
+      <c r="C609" t="s">
+        <v>670</v>
+      </c>
+      <c r="D609" t="s">
+        <v>17</v>
+      </c>
+      <c r="E609" t="s">
+        <v>31</v>
+      </c>
+      <c r="F609" t="s">
+        <v>50</v>
+      </c>
+      <c r="G609" t="s">
+        <v>22</v>
+      </c>
+      <c r="H609" t="s">
+        <v>40</v>
+      </c>
+      <c r="I609" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" t="s">
+        <v>667</v>
+      </c>
+      <c r="B610" t="s">
+        <v>32</v>
+      </c>
+      <c r="C610" t="s">
+        <v>671</v>
+      </c>
+      <c r="D610" t="s">
+        <v>35</v>
+      </c>
+      <c r="E610" t="s">
+        <v>43</v>
+      </c>
+      <c r="F610" t="s">
+        <v>21</v>
+      </c>
+      <c r="G610" t="s">
+        <v>18</v>
+      </c>
+      <c r="H610" t="s">
+        <v>23</v>
+      </c>
+      <c r="I610" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>667</v>
+      </c>
+      <c r="B611" t="s">
+        <v>37</v>
+      </c>
+      <c r="C611" t="s">
+        <v>672</v>
+      </c>
+      <c r="D611" t="s">
+        <v>15</v>
+      </c>
+      <c r="E611" t="s">
+        <v>55</v>
+      </c>
+      <c r="F611" t="s">
+        <v>40</v>
+      </c>
+      <c r="G611" t="s">
+        <v>18</v>
+      </c>
+      <c r="H611" t="s">
+        <v>21</v>
+      </c>
+      <c r="I611" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" t="s">
+        <v>667</v>
+      </c>
+      <c r="B612" t="s">
+        <v>41</v>
+      </c>
+      <c r="C612" t="s">
+        <v>673</v>
+      </c>
+      <c r="D612" t="s">
+        <v>35</v>
+      </c>
+      <c r="E612" t="s">
+        <v>43</v>
+      </c>
+      <c r="F612" t="s">
+        <v>17</v>
+      </c>
+      <c r="G612" t="s">
+        <v>7</v>
+      </c>
+      <c r="H612" t="s">
+        <v>8</v>
+      </c>
+      <c r="I612" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" t="s">
+        <v>667</v>
+      </c>
+      <c r="B613" t="s">
+        <v>44</v>
+      </c>
+      <c r="C613" t="s">
+        <v>673</v>
+      </c>
+      <c r="D613" t="s">
+        <v>6</v>
+      </c>
+      <c r="E613" t="s">
+        <v>22</v>
+      </c>
+      <c r="F613" t="s">
+        <v>23</v>
+      </c>
+      <c r="G613" t="s">
+        <v>76</v>
+      </c>
+      <c r="H613" t="s">
+        <v>50</v>
+      </c>
+      <c r="I613" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" t="s">
+        <v>674</v>
+      </c>
+      <c r="B614" t="s">
+        <v>4</v>
+      </c>
+      <c r="C614" t="s">
+        <v>675</v>
+      </c>
+      <c r="D614" t="s">
+        <v>17</v>
+      </c>
+      <c r="E614" t="s">
+        <v>31</v>
+      </c>
+      <c r="F614" t="s">
+        <v>50</v>
+      </c>
+      <c r="G614" t="s">
+        <v>11</v>
+      </c>
+      <c r="H614" t="s">
+        <v>6</v>
+      </c>
+      <c r="I614" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" t="s">
+        <v>674</v>
+      </c>
+      <c r="B615" t="s">
+        <v>12</v>
+      </c>
+      <c r="C615" t="s">
+        <v>676</v>
+      </c>
+      <c r="D615" t="s">
+        <v>46</v>
+      </c>
+      <c r="E615" t="s">
+        <v>18</v>
+      </c>
+      <c r="F615" t="s">
+        <v>35</v>
+      </c>
+      <c r="G615" t="s">
+        <v>24</v>
+      </c>
+      <c r="H615" t="s">
+        <v>10</v>
+      </c>
+      <c r="I615" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616" t="s">
+        <v>674</v>
+      </c>
+      <c r="B616" t="s">
+        <v>19</v>
+      </c>
+      <c r="C616" t="s">
+        <v>677</v>
+      </c>
+      <c r="D616" t="s">
+        <v>35</v>
+      </c>
+      <c r="E616" t="s">
+        <v>76</v>
+      </c>
+      <c r="F616" t="s">
+        <v>17</v>
+      </c>
+      <c r="G616" t="s">
+        <v>7</v>
+      </c>
+      <c r="H616" t="s">
+        <v>21</v>
+      </c>
+      <c r="I616" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617" t="s">
+        <v>674</v>
+      </c>
+      <c r="B617" t="s">
+        <v>26</v>
+      </c>
+      <c r="C617" t="s">
+        <v>678</v>
+      </c>
+      <c r="D617" t="s">
+        <v>6</v>
+      </c>
+      <c r="E617" t="s">
+        <v>22</v>
+      </c>
+      <c r="F617" t="s">
+        <v>10</v>
+      </c>
+      <c r="G617" t="s">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s">
+        <v>15</v>
+      </c>
+      <c r="I617" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618" t="s">
+        <v>674</v>
+      </c>
+      <c r="B618" t="s">
+        <v>27</v>
+      </c>
+      <c r="C618" t="s">
+        <v>679</v>
+      </c>
+      <c r="D618" t="s">
+        <v>30</v>
+      </c>
+      <c r="E618" t="s">
+        <v>24</v>
+      </c>
+      <c r="F618" t="s">
+        <v>29</v>
+      </c>
+      <c r="G618" t="s">
+        <v>76</v>
+      </c>
+      <c r="H618" t="s">
+        <v>46</v>
+      </c>
+      <c r="I618" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619" t="s">
+        <v>674</v>
+      </c>
+      <c r="B619" t="s">
+        <v>32</v>
+      </c>
+      <c r="C619" t="s">
+        <v>680</v>
+      </c>
+      <c r="D619" t="s">
+        <v>21</v>
+      </c>
+      <c r="E619" t="s">
+        <v>11</v>
+      </c>
+      <c r="F619" t="s">
+        <v>35</v>
+      </c>
+      <c r="G619" t="s">
+        <v>658</v>
+      </c>
+      <c r="H619" t="s">
+        <v>40</v>
+      </c>
+      <c r="I619" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" t="s">
+        <v>674</v>
+      </c>
+      <c r="B620" t="s">
+        <v>37</v>
+      </c>
+      <c r="C620" t="s">
+        <v>681</v>
+      </c>
+      <c r="D620" t="s">
+        <v>17</v>
+      </c>
+      <c r="E620" t="s">
+        <v>22</v>
+      </c>
+      <c r="F620" t="s">
+        <v>6</v>
+      </c>
+      <c r="G620" t="s">
+        <v>7</v>
+      </c>
+      <c r="H620" t="s">
+        <v>21</v>
+      </c>
+      <c r="I620" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621" t="s">
+        <v>674</v>
+      </c>
+      <c r="B621" t="s">
+        <v>41</v>
+      </c>
+      <c r="C621" t="s">
+        <v>682</v>
+      </c>
+      <c r="D621" t="s">
+        <v>50</v>
+      </c>
+      <c r="E621" t="s">
+        <v>22</v>
+      </c>
+      <c r="F621" t="s">
+        <v>17</v>
+      </c>
+      <c r="G621" t="s">
+        <v>18</v>
+      </c>
+      <c r="H621" t="s">
+        <v>30</v>
+      </c>
+      <c r="I621" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622" t="s">
+        <v>674</v>
+      </c>
+      <c r="B622" t="s">
+        <v>44</v>
+      </c>
+      <c r="C622" t="s">
+        <v>684</v>
+      </c>
+      <c r="D622" t="s">
+        <v>8</v>
+      </c>
+      <c r="E622" t="s">
+        <v>7</v>
+      </c>
+      <c r="F622" t="s">
+        <v>21</v>
+      </c>
+      <c r="G622" t="s">
+        <v>16</v>
+      </c>
+      <c r="H622" t="s">
+        <v>10</v>
+      </c>
+      <c r="I622" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623" t="s">
+        <v>674</v>
+      </c>
+      <c r="B623" t="s">
+        <v>48</v>
+      </c>
+      <c r="C623" t="s">
+        <v>685</v>
+      </c>
+      <c r="D623" t="s">
+        <v>50</v>
+      </c>
+      <c r="E623" t="s">
+        <v>7</v>
+      </c>
+      <c r="F623" t="s">
+        <v>6</v>
+      </c>
+      <c r="G623" t="s">
+        <v>16</v>
+      </c>
+      <c r="H623" t="s">
+        <v>21</v>
+      </c>
+      <c r="I623" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624" t="s">
+        <v>686</v>
+      </c>
+      <c r="B624" t="s">
+        <v>4</v>
+      </c>
+      <c r="C624" t="s">
+        <v>687</v>
+      </c>
+      <c r="D624" t="s">
+        <v>35</v>
+      </c>
+      <c r="E624" t="s">
+        <v>16</v>
+      </c>
+      <c r="F624" t="s">
+        <v>6</v>
+      </c>
+      <c r="G624" t="s">
+        <v>22</v>
+      </c>
+      <c r="H624" t="s">
+        <v>30</v>
+      </c>
+      <c r="I624" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625" t="s">
+        <v>686</v>
+      </c>
+      <c r="B625" t="s">
+        <v>12</v>
+      </c>
+      <c r="C625" t="s">
+        <v>688</v>
+      </c>
+      <c r="D625" t="s">
+        <v>17</v>
+      </c>
+      <c r="E625" t="s">
+        <v>34</v>
+      </c>
+      <c r="F625" t="s">
+        <v>21</v>
+      </c>
+      <c r="G625" t="s">
+        <v>18</v>
+      </c>
+      <c r="H625" t="s">
+        <v>15</v>
+      </c>
+      <c r="I625" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9">
+      <c r="A626" t="s">
+        <v>686</v>
+      </c>
+      <c r="B626" t="s">
+        <v>19</v>
+      </c>
+      <c r="C626" t="s">
+        <v>689</v>
+      </c>
+      <c r="D626" t="s">
+        <v>50</v>
+      </c>
+      <c r="E626" t="s">
+        <v>16</v>
+      </c>
+      <c r="F626" t="s">
+        <v>30</v>
+      </c>
+      <c r="G626" t="s">
+        <v>24</v>
+      </c>
+      <c r="H626" t="s">
+        <v>23</v>
+      </c>
+      <c r="I626" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9">
+      <c r="A627" t="s">
+        <v>686</v>
+      </c>
+      <c r="B627" t="s">
+        <v>26</v>
+      </c>
+      <c r="C627" t="s">
+        <v>687</v>
+      </c>
+      <c r="D627" t="s">
+        <v>21</v>
+      </c>
+      <c r="E627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" t="s">
+        <v>17</v>
+      </c>
+      <c r="G627" t="s">
+        <v>25</v>
+      </c>
+      <c r="H627" t="s">
+        <v>8</v>
+      </c>
+      <c r="I627" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628" t="s">
+        <v>686</v>
+      </c>
+      <c r="B628" t="s">
+        <v>27</v>
+      </c>
+      <c r="C628" t="s">
+        <v>690</v>
+      </c>
+      <c r="D628" t="s">
+        <v>50</v>
+      </c>
+      <c r="E628" t="s">
+        <v>22</v>
+      </c>
+      <c r="F628" t="s">
+        <v>40</v>
+      </c>
+      <c r="G628" t="s">
+        <v>7</v>
+      </c>
+      <c r="H628" t="s">
+        <v>17</v>
+      </c>
+      <c r="I628" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9">
+      <c r="A629" t="s">
+        <v>686</v>
+      </c>
+      <c r="B629" t="s">
+        <v>32</v>
+      </c>
+      <c r="C629" t="s">
+        <v>691</v>
+      </c>
+      <c r="D629" t="s">
+        <v>15</v>
+      </c>
+      <c r="E629" t="s">
+        <v>39</v>
+      </c>
+      <c r="F629" t="s">
+        <v>29</v>
+      </c>
+      <c r="G629" t="s">
+        <v>7</v>
+      </c>
+      <c r="H629" t="s">
+        <v>17</v>
+      </c>
+      <c r="I629" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="A630" t="s">
+        <v>686</v>
+      </c>
+      <c r="B630" t="s">
+        <v>37</v>
+      </c>
+      <c r="C630" t="s">
+        <v>688</v>
+      </c>
+      <c r="D630" t="s">
+        <v>40</v>
+      </c>
+      <c r="E630" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" t="s">
+        <v>35</v>
+      </c>
+      <c r="G630" t="s">
+        <v>25</v>
+      </c>
+      <c r="H630" t="s">
+        <v>23</v>
+      </c>
+      <c r="I630" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9">
+      <c r="A631" t="s">
+        <v>686</v>
+      </c>
+      <c r="B631" t="s">
+        <v>41</v>
+      </c>
+      <c r="C631" t="s">
+        <v>692</v>
+      </c>
+      <c r="D631" t="s">
+        <v>6</v>
+      </c>
+      <c r="E631" t="s">
+        <v>7</v>
+      </c>
+      <c r="F631" t="s">
+        <v>10</v>
+      </c>
+      <c r="G631" t="s">
+        <v>24</v>
+      </c>
+      <c r="H631" t="s">
+        <v>8</v>
+      </c>
+      <c r="I631" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9">
+      <c r="A632" t="s">
+        <v>686</v>
+      </c>
+      <c r="B632" t="s">
+        <v>44</v>
+      </c>
+      <c r="C632" t="s">
+        <v>693</v>
+      </c>
+      <c r="D632" t="s">
+        <v>17</v>
+      </c>
+      <c r="E632" t="s">
+        <v>76</v>
+      </c>
+      <c r="F632" t="s">
+        <v>21</v>
+      </c>
+      <c r="G632" t="s">
+        <v>16</v>
+      </c>
+      <c r="H632" t="s">
+        <v>6</v>
+      </c>
+      <c r="I632" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
+      <c r="A633" t="s">
+        <v>695</v>
+      </c>
+      <c r="B633" t="s">
+        <v>4</v>
+      </c>
+      <c r="C633" t="s">
+        <v>696</v>
+      </c>
+      <c r="D633" t="s">
+        <v>50</v>
+      </c>
+      <c r="E633" t="s">
+        <v>195</v>
+      </c>
+      <c r="F633" t="s">
+        <v>17</v>
+      </c>
+      <c r="G633" t="s">
+        <v>22</v>
+      </c>
+      <c r="H633" t="s">
+        <v>35</v>
+      </c>
+      <c r="I633" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9">
+      <c r="A634" t="s">
+        <v>695</v>
+      </c>
+      <c r="B634" t="s">
+        <v>12</v>
+      </c>
+      <c r="C634" t="s">
+        <v>697</v>
+      </c>
+      <c r="D634" t="s">
+        <v>30</v>
+      </c>
+      <c r="E634" t="s">
+        <v>16</v>
+      </c>
+      <c r="F634" t="s">
+        <v>29</v>
+      </c>
+      <c r="G634" t="s">
+        <v>31</v>
+      </c>
+      <c r="H634" t="s">
+        <v>40</v>
+      </c>
+      <c r="I634" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9">
+      <c r="A635" t="s">
+        <v>695</v>
+      </c>
+      <c r="B635" t="s">
+        <v>19</v>
+      </c>
+      <c r="C635" t="s">
+        <v>698</v>
+      </c>
+      <c r="D635" t="s">
+        <v>30</v>
+      </c>
+      <c r="E635" t="s">
+        <v>36</v>
+      </c>
+      <c r="F635" t="s">
+        <v>23</v>
+      </c>
+      <c r="G635" t="s">
+        <v>24</v>
+      </c>
+      <c r="H635" t="s">
+        <v>6</v>
+      </c>
+      <c r="I635" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9">
+      <c r="A636" t="s">
+        <v>695</v>
+      </c>
+      <c r="B636" t="s">
+        <v>26</v>
+      </c>
+      <c r="C636" t="s">
+        <v>699</v>
+      </c>
+      <c r="D636" t="s">
+        <v>21</v>
+      </c>
+      <c r="E636" t="s">
+        <v>18</v>
+      </c>
+      <c r="F636" t="s">
+        <v>29</v>
+      </c>
+      <c r="G636" t="s">
+        <v>7</v>
+      </c>
+      <c r="H636" t="s">
+        <v>23</v>
+      </c>
+      <c r="I636" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9">
+      <c r="A637" t="s">
+        <v>695</v>
+      </c>
+      <c r="B637" t="s">
+        <v>27</v>
+      </c>
+      <c r="C637" t="s">
+        <v>700</v>
+      </c>
+      <c r="D637" t="s">
+        <v>15</v>
+      </c>
+      <c r="E637" t="s">
+        <v>7</v>
+      </c>
+      <c r="F637" t="s">
+        <v>30</v>
+      </c>
+      <c r="G637" t="s">
+        <v>16</v>
+      </c>
+      <c r="H637" t="s">
+        <v>23</v>
+      </c>
+      <c r="I637" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9">
+      <c r="A638" t="s">
+        <v>695</v>
+      </c>
+      <c r="B638" t="s">
+        <v>32</v>
+      </c>
+      <c r="C638" t="s">
+        <v>701</v>
+      </c>
+      <c r="D638" t="s">
+        <v>6</v>
+      </c>
+      <c r="E638" t="s">
+        <v>11</v>
+      </c>
+      <c r="F638" t="s">
+        <v>15</v>
+      </c>
+      <c r="G638" t="s">
+        <v>24</v>
+      </c>
+      <c r="H638" t="s">
+        <v>23</v>
+      </c>
+      <c r="I638" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9">
+      <c r="A639" t="s">
+        <v>695</v>
+      </c>
+      <c r="B639" t="s">
+        <v>37</v>
+      </c>
+      <c r="C639" t="s">
+        <v>702</v>
+      </c>
+      <c r="D639" t="s">
+        <v>29</v>
+      </c>
+      <c r="E639" t="s">
+        <v>43</v>
+      </c>
+      <c r="F639" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" t="s">
+        <v>24</v>
+      </c>
+      <c r="H639" t="s">
+        <v>40</v>
+      </c>
+      <c r="I639" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9">
+      <c r="A640" t="s">
+        <v>695</v>
+      </c>
+      <c r="B640" t="s">
+        <v>41</v>
+      </c>
+      <c r="C640" t="s">
+        <v>703</v>
+      </c>
+      <c r="D640" t="s">
+        <v>40</v>
+      </c>
+      <c r="E640" t="s">
+        <v>18</v>
+      </c>
+      <c r="F640" t="s">
+        <v>17</v>
+      </c>
+      <c r="G640" t="s">
+        <v>43</v>
+      </c>
+      <c r="H640" t="s">
+        <v>15</v>
+      </c>
+      <c r="I640" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9">
+      <c r="A641" t="s">
+        <v>695</v>
+      </c>
+      <c r="B641" t="s">
+        <v>44</v>
+      </c>
+      <c r="C641" t="s">
+        <v>704</v>
+      </c>
+      <c r="D641" t="s">
+        <v>15</v>
+      </c>
+      <c r="E641" t="s">
+        <v>7</v>
+      </c>
+      <c r="F641" t="s">
+        <v>21</v>
+      </c>
+      <c r="G641" t="s">
+        <v>18</v>
+      </c>
+      <c r="H641" t="s">
+        <v>10</v>
+      </c>
+      <c r="I641" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9">
+      <c r="A642" t="s">
+        <v>695</v>
+      </c>
+      <c r="B642" t="s">
+        <v>48</v>
+      </c>
+      <c r="C642" t="s">
+        <v>703</v>
+      </c>
+      <c r="D642" t="s">
+        <v>8</v>
+      </c>
+      <c r="E642" t="s">
+        <v>24</v>
+      </c>
+      <c r="F642" t="s">
+        <v>17</v>
+      </c>
+      <c r="G642" t="s">
+        <v>16</v>
+      </c>
+      <c r="H642" t="s">
+        <v>40</v>
+      </c>
+      <c r="I642" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9">
+      <c r="A643" t="s">
+        <v>695</v>
+      </c>
+      <c r="B643" t="s">
+        <v>365</v>
+      </c>
+      <c r="C643" t="s">
+        <v>705</v>
+      </c>
+      <c r="D643" t="s">
+        <v>17</v>
+      </c>
+      <c r="E643" t="s">
+        <v>25</v>
+      </c>
+      <c r="F643" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" t="s">
+        <v>11</v>
+      </c>
+      <c r="H643" t="s">
+        <v>21</v>
+      </c>
+      <c r="I643" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9">
+      <c r="A644" t="s">
+        <v>706</v>
+      </c>
+      <c r="B644" t="s">
+        <v>4</v>
+      </c>
+      <c r="C644" t="s">
+        <v>707</v>
+      </c>
+      <c r="D644" t="s">
+        <v>8</v>
+      </c>
+      <c r="E644" t="s">
+        <v>43</v>
+      </c>
+      <c r="F644" t="s">
+        <v>6</v>
+      </c>
+      <c r="G644" t="s">
+        <v>16</v>
+      </c>
+      <c r="H644" t="s">
+        <v>17</v>
+      </c>
+      <c r="I644" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9">
+      <c r="A645" t="s">
+        <v>706</v>
+      </c>
+      <c r="B645" t="s">
+        <v>12</v>
+      </c>
+      <c r="C645" t="s">
+        <v>708</v>
+      </c>
+      <c r="D645" t="s">
+        <v>21</v>
+      </c>
+      <c r="E645" t="s">
+        <v>24</v>
+      </c>
+      <c r="F645" t="s">
+        <v>6</v>
+      </c>
+      <c r="G645" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" t="s">
+        <v>30</v>
+      </c>
+      <c r="I645" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9">
+      <c r="A646" t="s">
+        <v>706</v>
+      </c>
+      <c r="B646" t="s">
+        <v>19</v>
+      </c>
+      <c r="C646" t="s">
+        <v>709</v>
+      </c>
+      <c r="D646" t="s">
+        <v>17</v>
+      </c>
+      <c r="E646" t="s">
+        <v>36</v>
+      </c>
+      <c r="F646" t="s">
+        <v>15</v>
+      </c>
+      <c r="G646" t="s">
+        <v>31</v>
+      </c>
+      <c r="H646" t="s">
+        <v>35</v>
+      </c>
+      <c r="I646" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9">
+      <c r="A647" t="s">
+        <v>706</v>
+      </c>
+      <c r="B647" t="s">
+        <v>26</v>
+      </c>
+      <c r="C647" t="s">
+        <v>707</v>
+      </c>
+      <c r="D647" t="s">
+        <v>23</v>
+      </c>
+      <c r="E647" t="s">
+        <v>18</v>
+      </c>
+      <c r="F647" t="s">
+        <v>15</v>
+      </c>
+      <c r="G647" t="s">
+        <v>36</v>
+      </c>
+      <c r="H647" t="s">
+        <v>30</v>
+      </c>
+      <c r="I647" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648" t="s">
+        <v>706</v>
+      </c>
+      <c r="B648" t="s">
+        <v>27</v>
+      </c>
+      <c r="C648" t="s">
+        <v>707</v>
+      </c>
+      <c r="D648" t="s">
+        <v>6</v>
+      </c>
+      <c r="E648" t="s">
+        <v>16</v>
+      </c>
+      <c r="F648" t="s">
+        <v>50</v>
+      </c>
+      <c r="G648" t="s">
+        <v>25</v>
+      </c>
+      <c r="H648" t="s">
+        <v>21</v>
+      </c>
+      <c r="I648" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9">
+      <c r="A649" t="s">
+        <v>706</v>
+      </c>
+      <c r="B649" t="s">
+        <v>32</v>
+      </c>
+      <c r="C649" t="s">
+        <v>710</v>
+      </c>
+      <c r="D649" t="s">
+        <v>15</v>
+      </c>
+      <c r="E649" t="s">
+        <v>36</v>
+      </c>
+      <c r="F649" t="s">
+        <v>29</v>
+      </c>
+      <c r="G649" t="s">
+        <v>24</v>
+      </c>
+      <c r="H649" t="s">
+        <v>21</v>
+      </c>
+      <c r="I649" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9">
+      <c r="A650" t="s">
+        <v>706</v>
+      </c>
+      <c r="B650" t="s">
+        <v>37</v>
+      </c>
+      <c r="C650" t="s">
+        <v>711</v>
+      </c>
+      <c r="D650" t="s">
+        <v>15</v>
+      </c>
+      <c r="E650" t="s">
+        <v>36</v>
+      </c>
+      <c r="F650" t="s">
+        <v>29</v>
+      </c>
+      <c r="G650" t="s">
+        <v>16</v>
+      </c>
+      <c r="H650" t="s">
+        <v>6</v>
+      </c>
+      <c r="I650" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9">
+      <c r="A651" t="s">
+        <v>706</v>
+      </c>
+      <c r="B651" t="s">
+        <v>41</v>
+      </c>
+      <c r="C651" t="s">
+        <v>711</v>
+      </c>
+      <c r="D651" t="s">
+        <v>50</v>
+      </c>
+      <c r="E651" t="s">
+        <v>7</v>
+      </c>
+      <c r="F651" t="s">
+        <v>21</v>
+      </c>
+      <c r="G651" t="s">
+        <v>16</v>
+      </c>
+      <c r="H651" t="s">
+        <v>30</v>
+      </c>
+      <c r="I651" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9">
+      <c r="A652" t="s">
+        <v>706</v>
+      </c>
+      <c r="B652" t="s">
+        <v>44</v>
+      </c>
+      <c r="C652" t="s">
+        <v>712</v>
+      </c>
+      <c r="D652" t="s">
+        <v>6</v>
+      </c>
+      <c r="E652" t="s">
+        <v>24</v>
+      </c>
+      <c r="F652" t="s">
+        <v>10</v>
+      </c>
+      <c r="G652" t="s">
+        <v>43</v>
+      </c>
+      <c r="H652" t="s">
+        <v>8</v>
+      </c>
+      <c r="I652" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653" t="s">
+        <v>713</v>
+      </c>
+      <c r="B653" t="s">
+        <v>4</v>
+      </c>
+      <c r="C653" t="s">
+        <v>714</v>
+      </c>
+      <c r="D653" t="s">
+        <v>17</v>
+      </c>
+      <c r="E653" t="s">
+        <v>16</v>
+      </c>
+      <c r="F653" t="s">
+        <v>10</v>
+      </c>
+      <c r="G653" t="s">
+        <v>76</v>
+      </c>
+      <c r="H653" t="s">
+        <v>40</v>
+      </c>
+      <c r="I653" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654" t="s">
+        <v>713</v>
+      </c>
+      <c r="B654" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" t="s">
+        <v>715</v>
+      </c>
+      <c r="D654" t="s">
+        <v>10</v>
+      </c>
+      <c r="E654" t="s">
+        <v>25</v>
+      </c>
+      <c r="F654" t="s">
+        <v>40</v>
+      </c>
+      <c r="G654" t="s">
+        <v>195</v>
+      </c>
+      <c r="H654" t="s">
+        <v>6</v>
+      </c>
+      <c r="I654" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655" t="s">
+        <v>713</v>
+      </c>
+      <c r="B655" t="s">
+        <v>19</v>
+      </c>
+      <c r="C655" t="s">
+        <v>714</v>
+      </c>
+      <c r="D655" t="s">
+        <v>17</v>
+      </c>
+      <c r="E655" t="s">
+        <v>36</v>
+      </c>
+      <c r="F655" t="s">
+        <v>50</v>
+      </c>
+      <c r="G655" t="s">
+        <v>25</v>
+      </c>
+      <c r="H655" t="s">
+        <v>21</v>
+      </c>
+      <c r="I655" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656" t="s">
+        <v>713</v>
+      </c>
+      <c r="B656" t="s">
+        <v>26</v>
+      </c>
+      <c r="C656" t="s">
+        <v>716</v>
+      </c>
+      <c r="D656" t="s">
+        <v>17</v>
+      </c>
+      <c r="E656" t="s">
+        <v>16</v>
+      </c>
+      <c r="F656" t="s">
+        <v>23</v>
+      </c>
+      <c r="G656" t="s">
+        <v>138</v>
+      </c>
+      <c r="H656" t="s">
+        <v>30</v>
+      </c>
+      <c r="I656" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657" t="s">
+        <v>713</v>
+      </c>
+      <c r="B657" t="s">
+        <v>27</v>
+      </c>
+      <c r="C657" t="s">
+        <v>717</v>
+      </c>
+      <c r="D657" t="s">
+        <v>50</v>
+      </c>
+      <c r="E657" t="s">
+        <v>658</v>
+      </c>
+      <c r="F657" t="s">
+        <v>8</v>
+      </c>
+      <c r="G657" t="s">
+        <v>11</v>
+      </c>
+      <c r="H657" t="s">
+        <v>10</v>
+      </c>
+      <c r="I657" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9">
+      <c r="A658" t="s">
+        <v>713</v>
+      </c>
+      <c r="B658" t="s">
+        <v>32</v>
+      </c>
+      <c r="C658" t="s">
+        <v>718</v>
+      </c>
+      <c r="D658" t="s">
+        <v>35</v>
+      </c>
+      <c r="E658" t="s">
+        <v>18</v>
+      </c>
+      <c r="F658" t="s">
+        <v>29</v>
+      </c>
+      <c r="G658" t="s">
+        <v>195</v>
+      </c>
+      <c r="H658" t="s">
+        <v>15</v>
+      </c>
+      <c r="I658" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9">
+      <c r="A659" t="s">
+        <v>713</v>
+      </c>
+      <c r="B659" t="s">
+        <v>37</v>
+      </c>
+      <c r="C659" t="s">
+        <v>719</v>
+      </c>
+      <c r="D659" t="s">
+        <v>8</v>
+      </c>
+      <c r="E659" t="s">
+        <v>7</v>
+      </c>
+      <c r="F659" t="s">
+        <v>15</v>
+      </c>
+      <c r="G659" t="s">
+        <v>55</v>
+      </c>
+      <c r="H659" t="s">
+        <v>30</v>
+      </c>
+      <c r="I659" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="A660" t="s">
+        <v>713</v>
+      </c>
+      <c r="B660" t="s">
+        <v>41</v>
+      </c>
+      <c r="C660" t="s">
+        <v>720</v>
+      </c>
+      <c r="D660" t="s">
+        <v>35</v>
+      </c>
+      <c r="E660" t="s">
+        <v>47</v>
+      </c>
+      <c r="F660" t="s">
+        <v>23</v>
+      </c>
+      <c r="G660" t="s">
+        <v>24</v>
+      </c>
+      <c r="H660" t="s">
+        <v>8</v>
+      </c>
+      <c r="I660" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9">
+      <c r="A661" t="s">
+        <v>713</v>
+      </c>
+      <c r="B661" t="s">
+        <v>44</v>
+      </c>
+      <c r="C661" t="s">
+        <v>721</v>
+      </c>
+      <c r="D661" t="s">
+        <v>10</v>
+      </c>
+      <c r="E661" t="s">
+        <v>24</v>
+      </c>
+      <c r="F661" t="s">
+        <v>30</v>
+      </c>
+      <c r="G661" t="s">
+        <v>76</v>
+      </c>
+      <c r="H661" t="s">
+        <v>8</v>
+      </c>
+      <c r="I661" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9">
+      <c r="A662" t="s">
+        <v>713</v>
+      </c>
+      <c r="B662" t="s">
+        <v>48</v>
+      </c>
+      <c r="C662" t="s">
+        <v>722</v>
+      </c>
+      <c r="D662" t="s">
+        <v>50</v>
+      </c>
+      <c r="E662" t="s">
+        <v>16</v>
+      </c>
+      <c r="F662" t="s">
+        <v>30</v>
+      </c>
+      <c r="G662" t="s">
+        <v>25</v>
+      </c>
+      <c r="H662" t="s">
+        <v>10</v>
+      </c>
+      <c r="I662" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9">
+      <c r="A663" t="s">
+        <v>724</v>
+      </c>
+      <c r="B663" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>725</v>
+      </c>
+      <c r="D663" t="s">
+        <v>6</v>
+      </c>
+      <c r="E663" t="s">
+        <v>18</v>
+      </c>
+      <c r="F663" t="s">
+        <v>23</v>
+      </c>
+      <c r="G663" t="s">
+        <v>7</v>
+      </c>
+      <c r="H663" t="s">
+        <v>29</v>
+      </c>
+      <c r="I663" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9">
+      <c r="A664" t="s">
+        <v>724</v>
+      </c>
+      <c r="B664" t="s">
+        <v>12</v>
+      </c>
+      <c r="C664" t="s">
+        <v>726</v>
+      </c>
+      <c r="D664" t="s">
+        <v>50</v>
+      </c>
+      <c r="E664" t="s">
+        <v>16</v>
+      </c>
+      <c r="F664" t="s">
+        <v>17</v>
+      </c>
+      <c r="G664" t="s">
+        <v>11</v>
+      </c>
+      <c r="H664" t="s">
+        <v>30</v>
+      </c>
+      <c r="I664" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9">
+      <c r="A665" t="s">
+        <v>724</v>
+      </c>
+      <c r="B665" t="s">
+        <v>19</v>
+      </c>
+      <c r="C665" t="s">
+        <v>727</v>
+      </c>
+      <c r="D665" t="s">
+        <v>29</v>
+      </c>
+      <c r="E665" t="s">
+        <v>36</v>
+      </c>
+      <c r="F665" t="s">
+        <v>17</v>
+      </c>
+      <c r="G665" t="s">
+        <v>16</v>
+      </c>
+      <c r="H665" t="s">
+        <v>35</v>
+      </c>
+      <c r="I665" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9">
+      <c r="A666" t="s">
+        <v>724</v>
+      </c>
+      <c r="B666" t="s">
+        <v>26</v>
+      </c>
+      <c r="C666" t="s">
+        <v>728</v>
+      </c>
+      <c r="D666" t="s">
+        <v>21</v>
+      </c>
+      <c r="E666" t="s">
+        <v>11</v>
+      </c>
+      <c r="F666" t="s">
+        <v>23</v>
+      </c>
+      <c r="G666" t="s">
+        <v>43</v>
+      </c>
+      <c r="H666" t="s">
+        <v>10</v>
+      </c>
+      <c r="I666" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9">
+      <c r="A667" t="s">
+        <v>724</v>
+      </c>
+      <c r="B667" t="s">
+        <v>27</v>
+      </c>
+      <c r="C667" t="s">
+        <v>728</v>
+      </c>
+      <c r="D667" t="s">
+        <v>6</v>
+      </c>
+      <c r="E667" t="s">
+        <v>36</v>
+      </c>
+      <c r="F667" t="s">
+        <v>23</v>
+      </c>
+      <c r="G667" t="s">
+        <v>138</v>
+      </c>
+      <c r="H667" t="s">
+        <v>8</v>
+      </c>
+      <c r="I667" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9">
+      <c r="A668" t="s">
+        <v>724</v>
+      </c>
+      <c r="B668" t="s">
+        <v>32</v>
+      </c>
+      <c r="C668" t="s">
+        <v>729</v>
+      </c>
+      <c r="D668" t="s">
+        <v>50</v>
+      </c>
+      <c r="E668" t="s">
+        <v>7</v>
+      </c>
+      <c r="F668" t="s">
+        <v>68</v>
+      </c>
+      <c r="G668" t="s">
+        <v>24</v>
+      </c>
+      <c r="H668" t="s">
+        <v>6</v>
+      </c>
+      <c r="I668" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9">
+      <c r="A669" t="s">
+        <v>724</v>
+      </c>
+      <c r="B669" t="s">
+        <v>37</v>
+      </c>
+      <c r="C669" t="s">
+        <v>730</v>
+      </c>
+      <c r="D669" t="s">
+        <v>35</v>
+      </c>
+      <c r="E669" t="s">
+        <v>7</v>
+      </c>
+      <c r="F669" t="s">
+        <v>21</v>
+      </c>
+      <c r="G669" t="s">
+        <v>43</v>
+      </c>
+      <c r="H669" t="s">
+        <v>15</v>
+      </c>
+      <c r="I669" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9">
+      <c r="A670" t="s">
+        <v>724</v>
+      </c>
+      <c r="B670" t="s">
+        <v>41</v>
+      </c>
+      <c r="C670" t="s">
+        <v>731</v>
+      </c>
+      <c r="D670" t="s">
+        <v>6</v>
+      </c>
+      <c r="E670" t="s">
+        <v>18</v>
+      </c>
+      <c r="F670" t="s">
+        <v>40</v>
+      </c>
+      <c r="G670" t="s">
+        <v>36</v>
+      </c>
+      <c r="H670" t="s">
+        <v>17</v>
+      </c>
+      <c r="I670" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9">
+      <c r="A671" t="s">
+        <v>732</v>
+      </c>
+      <c r="B671" t="s">
+        <v>4</v>
+      </c>
+      <c r="C671" t="s">
+        <v>733</v>
+      </c>
+      <c r="D671" t="s">
+        <v>30</v>
+      </c>
+      <c r="E671" t="s">
+        <v>18</v>
+      </c>
+      <c r="F671" t="s">
+        <v>50</v>
+      </c>
+      <c r="G671" t="s">
+        <v>22</v>
+      </c>
+      <c r="H671" t="s">
+        <v>17</v>
+      </c>
+      <c r="I671" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9">
+      <c r="A672" t="s">
+        <v>732</v>
+      </c>
+      <c r="B672" t="s">
+        <v>12</v>
+      </c>
+      <c r="C672" t="s">
+        <v>734</v>
+      </c>
+      <c r="D672" t="s">
+        <v>17</v>
+      </c>
+      <c r="E672" t="s">
+        <v>16</v>
+      </c>
+      <c r="F672" t="s">
+        <v>21</v>
+      </c>
+      <c r="G672" t="s">
+        <v>39</v>
+      </c>
+      <c r="H672" t="s">
+        <v>50</v>
+      </c>
+      <c r="I672" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9">
+      <c r="A673" t="s">
+        <v>732</v>
+      </c>
+      <c r="B673" t="s">
+        <v>19</v>
+      </c>
+      <c r="C673" t="s">
+        <v>734</v>
+      </c>
+      <c r="D673" t="s">
+        <v>30</v>
+      </c>
+      <c r="E673" t="s">
+        <v>7</v>
+      </c>
+      <c r="F673" t="s">
+        <v>50</v>
+      </c>
+      <c r="G673" t="s">
+        <v>658</v>
+      </c>
+      <c r="H673" t="s">
+        <v>6</v>
+      </c>
+      <c r="I673" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9">
+      <c r="A674" t="s">
+        <v>732</v>
+      </c>
+      <c r="B674" t="s">
+        <v>26</v>
+      </c>
+      <c r="C674" t="s">
+        <v>735</v>
+      </c>
+      <c r="D674" t="s">
+        <v>21</v>
+      </c>
+      <c r="E674" t="s">
+        <v>39</v>
+      </c>
+      <c r="F674" t="s">
+        <v>17</v>
+      </c>
+      <c r="G674" t="s">
+        <v>24</v>
+      </c>
+      <c r="H674" t="s">
+        <v>10</v>
+      </c>
+      <c r="I674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9">
+      <c r="A675" t="s">
+        <v>732</v>
+      </c>
+      <c r="B675" t="s">
+        <v>27</v>
+      </c>
+      <c r="C675" t="s">
+        <v>736</v>
+      </c>
+      <c r="D675" t="s">
+        <v>17</v>
+      </c>
+      <c r="E675" t="s">
+        <v>9</v>
+      </c>
+      <c r="F675" t="s">
+        <v>46</v>
+      </c>
+      <c r="G675" t="s">
+        <v>18</v>
+      </c>
+      <c r="H675" t="s">
+        <v>21</v>
+      </c>
+      <c r="I675" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9">
+      <c r="A676" t="s">
+        <v>732</v>
+      </c>
+      <c r="B676" t="s">
+        <v>32</v>
+      </c>
+      <c r="C676" t="s">
+        <v>736</v>
+      </c>
+      <c r="D676" t="s">
+        <v>15</v>
+      </c>
+      <c r="E676" t="s">
+        <v>7</v>
+      </c>
+      <c r="F676" t="s">
+        <v>35</v>
+      </c>
+      <c r="G676" t="s">
+        <v>16</v>
+      </c>
+      <c r="H676" t="s">
+        <v>21</v>
+      </c>
+      <c r="I676" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9">
+      <c r="A677" t="s">
+        <v>732</v>
+      </c>
+      <c r="B677" t="s">
+        <v>37</v>
+      </c>
+      <c r="C677" t="s">
+        <v>737</v>
+      </c>
+      <c r="D677" t="s">
+        <v>29</v>
+      </c>
+      <c r="E677" t="s">
+        <v>16</v>
+      </c>
+      <c r="F677" t="s">
+        <v>21</v>
+      </c>
+      <c r="G677" t="s">
+        <v>7</v>
+      </c>
+      <c r="H677" t="s">
+        <v>40</v>
+      </c>
+      <c r="I677" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9">
+      <c r="A678" t="s">
+        <v>732</v>
+      </c>
+      <c r="B678" t="s">
+        <v>41</v>
+      </c>
+      <c r="C678" t="s">
+        <v>738</v>
+      </c>
+      <c r="D678" t="s">
+        <v>8</v>
+      </c>
+      <c r="E678" t="s">
+        <v>18</v>
+      </c>
+      <c r="F678" t="s">
+        <v>40</v>
+      </c>
+      <c r="G678" t="s">
+        <v>16</v>
+      </c>
+      <c r="H678" t="s">
+        <v>30</v>
+      </c>
+      <c r="I678" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9">
+      <c r="A679" t="s">
+        <v>732</v>
+      </c>
+      <c r="B679" t="s">
+        <v>44</v>
+      </c>
+      <c r="C679" t="s">
+        <v>739</v>
+      </c>
+      <c r="D679" t="s">
+        <v>50</v>
+      </c>
+      <c r="E679" t="s">
+        <v>16</v>
+      </c>
+      <c r="F679" t="s">
+        <v>6</v>
+      </c>
+      <c r="G679" t="s">
+        <v>43</v>
+      </c>
+      <c r="H679" t="s">
+        <v>23</v>
+      </c>
+      <c r="I679" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9">
+      <c r="A680" t="s">
+        <v>732</v>
+      </c>
+      <c r="B680" t="s">
+        <v>48</v>
+      </c>
+      <c r="C680" t="s">
+        <v>740</v>
+      </c>
+      <c r="D680" t="s">
+        <v>29</v>
+      </c>
+      <c r="E680" t="s">
+        <v>25</v>
+      </c>
+      <c r="F680" t="s">
+        <v>35</v>
+      </c>
+      <c r="G680" t="s">
+        <v>658</v>
+      </c>
+      <c r="H680" t="s">
+        <v>30</v>
+      </c>
+      <c r="I680" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9">
+      <c r="A681" t="s">
+        <v>741</v>
+      </c>
+      <c r="B681" t="s">
+        <v>4</v>
+      </c>
+      <c r="C681" t="s">
+        <v>742</v>
+      </c>
+      <c r="D681" t="s">
+        <v>29</v>
+      </c>
+      <c r="E681" t="s">
+        <v>16</v>
+      </c>
+      <c r="F681" t="s">
+        <v>10</v>
+      </c>
+      <c r="G681" t="s">
+        <v>34</v>
+      </c>
+      <c r="H681" t="s">
+        <v>6</v>
+      </c>
+      <c r="I681" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9">
+      <c r="A682" t="s">
+        <v>741</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682" t="s">
+        <v>742</v>
+      </c>
+      <c r="D682" t="s">
+        <v>6</v>
+      </c>
+      <c r="E682" t="s">
+        <v>7</v>
+      </c>
+      <c r="F682" t="s">
+        <v>10</v>
+      </c>
+      <c r="G682" t="s">
+        <v>55</v>
+      </c>
+      <c r="H682" t="s">
+        <v>21</v>
+      </c>
+      <c r="I682" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9">
+      <c r="A683" t="s">
+        <v>741</v>
+      </c>
+      <c r="B683" t="s">
+        <v>19</v>
+      </c>
+      <c r="C683" t="s">
+        <v>743</v>
+      </c>
+      <c r="D683" t="s">
+        <v>35</v>
+      </c>
+      <c r="E683" t="s">
+        <v>24</v>
+      </c>
+      <c r="F683" t="s">
+        <v>8</v>
+      </c>
+      <c r="G683" t="s">
+        <v>22</v>
+      </c>
+      <c r="H683" t="s">
+        <v>40</v>
+      </c>
+      <c r="I683" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9">
+      <c r="A684" t="s">
+        <v>741</v>
+      </c>
+      <c r="B684" t="s">
+        <v>26</v>
+      </c>
+      <c r="C684" t="s">
+        <v>744</v>
+      </c>
+      <c r="D684" t="s">
+        <v>35</v>
+      </c>
+      <c r="E684" t="s">
+        <v>7</v>
+      </c>
+      <c r="F684" t="s">
+        <v>10</v>
+      </c>
+      <c r="G684" t="s">
+        <v>22</v>
+      </c>
+      <c r="H684" t="s">
+        <v>40</v>
+      </c>
+      <c r="I684" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9">
+      <c r="A685" t="s">
+        <v>741</v>
+      </c>
+      <c r="B685" t="s">
+        <v>27</v>
+      </c>
+      <c r="C685" t="s">
+        <v>744</v>
+      </c>
+      <c r="D685" t="s">
+        <v>50</v>
+      </c>
+      <c r="E685" t="s">
+        <v>7</v>
+      </c>
+      <c r="F685" t="s">
+        <v>30</v>
+      </c>
+      <c r="G685" t="s">
+        <v>43</v>
+      </c>
+      <c r="H685" t="s">
+        <v>6</v>
+      </c>
+      <c r="I685" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9">
+      <c r="A686" t="s">
+        <v>741</v>
+      </c>
+      <c r="B686" t="s">
+        <v>32</v>
+      </c>
+      <c r="C686" t="s">
+        <v>745</v>
+      </c>
+      <c r="D686" t="s">
+        <v>50</v>
+      </c>
+      <c r="E686" t="s">
+        <v>7</v>
+      </c>
+      <c r="F686" t="s">
+        <v>17</v>
+      </c>
+      <c r="G686" t="s">
+        <v>18</v>
+      </c>
+      <c r="H686" t="s">
+        <v>10</v>
+      </c>
+      <c r="I686" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9">
+      <c r="A687" t="s">
+        <v>741</v>
+      </c>
+      <c r="B687" t="s">
+        <v>37</v>
+      </c>
+      <c r="C687" t="s">
+        <v>746</v>
+      </c>
+      <c r="D687" t="s">
+        <v>35</v>
+      </c>
+      <c r="E687" t="s">
+        <v>34</v>
+      </c>
+      <c r="F687" t="s">
+        <v>21</v>
+      </c>
+      <c r="G687" t="s">
+        <v>43</v>
+      </c>
+      <c r="H687" t="s">
+        <v>8</v>
+      </c>
+      <c r="I687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9">
+      <c r="A688" t="s">
+        <v>741</v>
+      </c>
+      <c r="B688" t="s">
+        <v>41</v>
+      </c>
+      <c r="C688" t="s">
+        <v>746</v>
+      </c>
+      <c r="D688" t="s">
+        <v>6</v>
+      </c>
+      <c r="E688" t="s">
+        <v>7</v>
+      </c>
+      <c r="F688" t="s">
+        <v>30</v>
+      </c>
+      <c r="G688" t="s">
+        <v>658</v>
+      </c>
+      <c r="H688" t="s">
+        <v>50</v>
+      </c>
+      <c r="I688" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9">
+      <c r="A689" t="s">
+        <v>741</v>
+      </c>
+      <c r="B689" t="s">
+        <v>44</v>
+      </c>
+      <c r="C689" t="s">
+        <v>747</v>
+      </c>
+      <c r="D689" t="s">
+        <v>29</v>
+      </c>
+      <c r="E689" t="s">
+        <v>18</v>
+      </c>
+      <c r="F689" t="s">
+        <v>23</v>
+      </c>
+      <c r="G689" t="s">
+        <v>92</v>
+      </c>
+      <c r="H689" t="s">
+        <v>21</v>
+      </c>
+      <c r="I689" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9">
+      <c r="A690" t="s">
+        <v>749</v>
+      </c>
+      <c r="B690" t="s">
+        <v>4</v>
+      </c>
+      <c r="C690" t="s">
+        <v>750</v>
+      </c>
+      <c r="D690" t="s">
+        <v>30</v>
+      </c>
+      <c r="E690" t="s">
+        <v>25</v>
+      </c>
+      <c r="F690" t="s">
+        <v>17</v>
+      </c>
+      <c r="G690" t="s">
+        <v>16</v>
+      </c>
+      <c r="H690" t="s">
+        <v>15</v>
+      </c>
+      <c r="I690" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9">
+      <c r="A691" t="s">
+        <v>749</v>
+      </c>
+      <c r="B691" t="s">
+        <v>12</v>
+      </c>
+      <c r="C691" t="s">
+        <v>751</v>
+      </c>
+      <c r="D691" t="s">
+        <v>21</v>
+      </c>
+      <c r="E691" t="s">
+        <v>16</v>
+      </c>
+      <c r="F691" t="s">
+        <v>17</v>
+      </c>
+      <c r="G691" t="s">
+        <v>18</v>
+      </c>
+      <c r="H691" t="s">
+        <v>30</v>
+      </c>
+      <c r="I691" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9">
+      <c r="A692" t="s">
+        <v>749</v>
+      </c>
+      <c r="B692" t="s">
+        <v>19</v>
+      </c>
+      <c r="C692" t="s">
+        <v>752</v>
+      </c>
+      <c r="D692" t="s">
+        <v>29</v>
+      </c>
+      <c r="E692" t="s">
+        <v>7</v>
+      </c>
+      <c r="F692" t="s">
+        <v>17</v>
+      </c>
+      <c r="G692" t="s">
+        <v>16</v>
+      </c>
+      <c r="H692" t="s">
+        <v>15</v>
+      </c>
+      <c r="I692" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9">
+      <c r="A693" t="s">
+        <v>749</v>
+      </c>
+      <c r="B693" t="s">
+        <v>26</v>
+      </c>
+      <c r="C693" t="s">
+        <v>753</v>
+      </c>
+      <c r="D693" t="s">
+        <v>35</v>
+      </c>
+      <c r="E693" t="s">
+        <v>7</v>
+      </c>
+      <c r="F693" t="s">
+        <v>29</v>
+      </c>
+      <c r="G693" t="s">
+        <v>22</v>
+      </c>
+      <c r="H693" t="s">
+        <v>15</v>
+      </c>
+      <c r="I693" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694" t="s">
+        <v>749</v>
+      </c>
+      <c r="B694" t="s">
+        <v>27</v>
+      </c>
+      <c r="C694" t="s">
+        <v>754</v>
+      </c>
+      <c r="D694" t="s">
+        <v>29</v>
+      </c>
+      <c r="E694" t="s">
+        <v>31</v>
+      </c>
+      <c r="F694" t="s">
+        <v>8</v>
+      </c>
+      <c r="G694" t="s">
+        <v>47</v>
+      </c>
+      <c r="H694" t="s">
+        <v>46</v>
+      </c>
+      <c r="I694" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695" t="s">
+        <v>749</v>
+      </c>
+      <c r="B695" t="s">
+        <v>32</v>
+      </c>
+      <c r="C695" t="s">
+        <v>755</v>
+      </c>
+      <c r="D695" t="s">
+        <v>10</v>
+      </c>
+      <c r="E695" t="s">
+        <v>76</v>
+      </c>
+      <c r="F695" t="s">
+        <v>15</v>
+      </c>
+      <c r="G695" t="s">
+        <v>11</v>
+      </c>
+      <c r="H695" t="s">
+        <v>6</v>
+      </c>
+      <c r="I695" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9">
+      <c r="A696" t="s">
+        <v>749</v>
+      </c>
+      <c r="B696" t="s">
+        <v>37</v>
+      </c>
+      <c r="C696" t="s">
+        <v>756</v>
+      </c>
+      <c r="D696" t="s">
+        <v>29</v>
+      </c>
+      <c r="E696" t="s">
+        <v>18</v>
+      </c>
+      <c r="F696" t="s">
+        <v>8</v>
+      </c>
+      <c r="G696" t="s">
+        <v>24</v>
+      </c>
+      <c r="H696" t="s">
+        <v>10</v>
+      </c>
+      <c r="I696" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9">
+      <c r="A697" t="s">
+        <v>749</v>
+      </c>
+      <c r="B697" t="s">
+        <v>41</v>
+      </c>
+      <c r="C697" t="s">
+        <v>757</v>
+      </c>
+      <c r="D697" t="s">
+        <v>30</v>
+      </c>
+      <c r="E697" t="s">
+        <v>18</v>
+      </c>
+      <c r="F697" t="s">
+        <v>15</v>
+      </c>
+      <c r="G697" t="s">
+        <v>7</v>
+      </c>
+      <c r="H697" t="s">
+        <v>17</v>
+      </c>
+      <c r="I697" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9">
+      <c r="A698" t="s">
+        <v>749</v>
+      </c>
+      <c r="B698" t="s">
+        <v>44</v>
+      </c>
+      <c r="C698" t="s">
+        <v>758</v>
+      </c>
+      <c r="D698" t="s">
+        <v>6</v>
+      </c>
+      <c r="E698" t="s">
+        <v>31</v>
+      </c>
+      <c r="F698" t="s">
+        <v>50</v>
+      </c>
+      <c r="G698" t="s">
+        <v>16</v>
+      </c>
+      <c r="H698" t="s">
+        <v>10</v>
+      </c>
+      <c r="I698" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9">
+      <c r="A699" t="s">
+        <v>749</v>
+      </c>
+      <c r="B699" t="s">
+        <v>48</v>
+      </c>
+      <c r="C699" t="s">
+        <v>759</v>
+      </c>
+      <c r="D699" t="s">
+        <v>35</v>
+      </c>
+      <c r="E699" t="s">
+        <v>25</v>
+      </c>
+      <c r="F699" t="s">
+        <v>6</v>
+      </c>
+      <c r="G699" t="s">
+        <v>18</v>
+      </c>
+      <c r="H699" t="s">
+        <v>15</v>
+      </c>
+      <c r="I699" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9">
+      <c r="A700" t="s">
+        <v>749</v>
+      </c>
+      <c r="B700" t="s">
+        <v>365</v>
+      </c>
+      <c r="C700" t="s">
+        <v>760</v>
+      </c>
+      <c r="D700" t="s">
+        <v>29</v>
+      </c>
+      <c r="E700" t="s">
+        <v>7</v>
+      </c>
+      <c r="F700" t="s">
+        <v>17</v>
+      </c>
+      <c r="G700" t="s">
+        <v>16</v>
+      </c>
+      <c r="H700" t="s">
+        <v>10</v>
+      </c>
+      <c r="I700" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9">
+      <c r="A701" t="s">
+        <v>761</v>
+      </c>
+      <c r="B701" t="s">
+        <v>4</v>
+      </c>
+      <c r="C701" t="s">
+        <v>762</v>
+      </c>
+      <c r="D701" t="s">
+        <v>35</v>
+      </c>
+      <c r="E701" t="s">
+        <v>9</v>
+      </c>
+      <c r="F701" t="s">
+        <v>23</v>
+      </c>
+      <c r="G701" t="s">
+        <v>14</v>
+      </c>
+      <c r="H701" t="s">
+        <v>15</v>
+      </c>
+      <c r="I701" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9">
+      <c r="A702" t="s">
+        <v>761</v>
+      </c>
+      <c r="B702" t="s">
+        <v>12</v>
+      </c>
+      <c r="C702" t="s">
+        <v>762</v>
+      </c>
+      <c r="D702" t="s">
+        <v>21</v>
+      </c>
+      <c r="E702" t="s">
+        <v>24</v>
+      </c>
+      <c r="F702" t="s">
+        <v>10</v>
+      </c>
+      <c r="G702" t="s">
+        <v>18</v>
+      </c>
+      <c r="H702" t="s">
+        <v>35</v>
+      </c>
+      <c r="I702" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9">
+      <c r="A703" t="s">
+        <v>761</v>
+      </c>
+      <c r="B703" t="s">
+        <v>19</v>
+      </c>
+      <c r="C703" t="s">
+        <v>763</v>
+      </c>
+      <c r="D703" t="s">
+        <v>21</v>
+      </c>
+      <c r="E703" t="s">
+        <v>7</v>
+      </c>
+      <c r="F703" t="s">
+        <v>15</v>
+      </c>
+      <c r="G703" t="s">
+        <v>16</v>
+      </c>
+      <c r="H703" t="s">
+        <v>17</v>
+      </c>
+      <c r="I703" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9">
+      <c r="A704" t="s">
+        <v>761</v>
+      </c>
+      <c r="B704" t="s">
+        <v>26</v>
+      </c>
+      <c r="C704" t="s">
+        <v>764</v>
+      </c>
+      <c r="D704" t="s">
+        <v>17</v>
+      </c>
+      <c r="E704" t="s">
+        <v>22</v>
+      </c>
+      <c r="F704" t="s">
+        <v>29</v>
+      </c>
+      <c r="G704" t="s">
+        <v>31</v>
+      </c>
+      <c r="H704" t="s">
+        <v>15</v>
+      </c>
+      <c r="I704" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705" t="s">
+        <v>761</v>
+      </c>
+      <c r="B705" t="s">
+        <v>27</v>
+      </c>
+      <c r="C705" t="s">
+        <v>765</v>
+      </c>
+      <c r="D705" t="s">
+        <v>23</v>
+      </c>
+      <c r="E705" t="s">
+        <v>76</v>
+      </c>
+      <c r="F705" t="s">
+        <v>21</v>
+      </c>
+      <c r="G705" t="s">
+        <v>22</v>
+      </c>
+      <c r="H705" t="s">
+        <v>30</v>
+      </c>
+      <c r="I705" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706" t="s">
+        <v>761</v>
+      </c>
+      <c r="B706" t="s">
+        <v>32</v>
+      </c>
+      <c r="C706" t="s">
+        <v>764</v>
+      </c>
+      <c r="D706" t="s">
+        <v>29</v>
+      </c>
+      <c r="E706" t="s">
+        <v>16</v>
+      </c>
+      <c r="F706" t="s">
+        <v>15</v>
+      </c>
+      <c r="G706" t="s">
+        <v>18</v>
+      </c>
+      <c r="H706" t="s">
+        <v>30</v>
+      </c>
+      <c r="I706" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" t="s">
+        <v>761</v>
+      </c>
+      <c r="B707" t="s">
+        <v>37</v>
+      </c>
+      <c r="C707" t="s">
+        <v>766</v>
+      </c>
+      <c r="D707" t="s">
+        <v>15</v>
+      </c>
+      <c r="E707" t="s">
+        <v>7</v>
+      </c>
+      <c r="F707" t="s">
+        <v>6</v>
+      </c>
+      <c r="G707" t="s">
+        <v>31</v>
+      </c>
+      <c r="H707" t="s">
+        <v>21</v>
+      </c>
+      <c r="I707" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9">
+      <c r="A708" t="s">
+        <v>761</v>
+      </c>
+      <c r="B708" t="s">
+        <v>41</v>
+      </c>
+      <c r="C708" t="s">
+        <v>767</v>
+      </c>
+      <c r="D708" t="s">
+        <v>23</v>
+      </c>
+      <c r="E708" t="s">
+        <v>76</v>
+      </c>
+      <c r="F708" t="s">
+        <v>15</v>
+      </c>
+      <c r="G708" t="s">
+        <v>7</v>
+      </c>
+      <c r="H708" t="s">
+        <v>29</v>
+      </c>
+      <c r="I708" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709" t="s">
+        <v>761</v>
+      </c>
+      <c r="B709" t="s">
+        <v>44</v>
+      </c>
+      <c r="C709" t="s">
+        <v>768</v>
+      </c>
+      <c r="D709" t="s">
+        <v>21</v>
+      </c>
+      <c r="E709" t="s">
+        <v>34</v>
+      </c>
+      <c r="F709" t="s">
+        <v>17</v>
+      </c>
+      <c r="G709" t="s">
+        <v>24</v>
+      </c>
+      <c r="H709" t="s">
+        <v>23</v>
+      </c>
+      <c r="I709" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710" t="s">
+        <v>770</v>
+      </c>
+      <c r="B710" t="s">
+        <v>4</v>
+      </c>
+      <c r="C710" t="s">
+        <v>771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\terrysclaw\download-racing-result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B46ADB-6251-49F5-804D-D7C503FE1E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -187,17 +204,6 @@
     <t>第三班 - 1200米 - (80-60) - 草地 - "B" 賽道 - 石澳讓賽</t>
   </si>
   <si>
-    <t>2021/09/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 海外賽事(S1) - 第 1 場</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                        賽事重溫
-</t>
-  </si>
-  <si>
     <t>2021/09/12</t>
   </si>
   <si>
@@ -226,13 +232,407 @@
   </si>
   <si>
     <t>第三班 - 1400米 - (80-60) - 草地 - "B" 賽道 - 觀塘讓賽</t>
+  </si>
+  <si>
+    <t>2021/09/15</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 草地 - "C" 賽道 - 香葉讓賽</t>
+  </si>
+  <si>
+    <t>霍宏聲</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C" 賽道 - 香島讓賽</t>
+  </si>
+  <si>
+    <t>波健士</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C" 賽道 - 南風讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 深灣讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "C" 賽道 - 香港鄉村俱樂部挑戰盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 大樹灣讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (100-80) - 草地 - "C" 賽道 - 黃竹坑讓賽</t>
+  </si>
+  <si>
+    <t>2021/09/19</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 全天候跑道 - 杜鵑讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C" 賽道 - 畫眉讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 全天候跑道 - 雲雀讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 喜鵲讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1600米 - (60-40) - 草地 - "C" 賽道 - 伯勞讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C" 賽道 - 太陽鳥讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1600米 - (80-60) - 草地 - "C" 賽道 - 燕子讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 中華游樂會挑戰盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C" 賽道 - 縫葉鶯讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1600米 - (100-80) - 草地 - "C" 賽道 - 啄木鳥讓賽</t>
+  </si>
+  <si>
+    <t>2021/09/22</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 草地 - "C+3" 賽道 - 白建時讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C+3" 賽道 - 摩頓讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "C+3" 賽道 - 裴樂士讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C+3" 賽道 - 軒德蓀讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C+3" 賽道 - 睦誠讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C+3" 賽道 - 金文泰讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1800米 - (80-60) - 草地 - "C+3" 賽道 - 祈禮士讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C+3" 賽道 - 谷柏讓賽</t>
+  </si>
+  <si>
+    <t>2021/09/26</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C+3" 賽道 - 華富讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 全天候跑道 - 福來讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C+3" 賽道 - 順利讓賽</t>
+  </si>
+  <si>
+    <t>黃皓楠</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 全天候跑道 - 愛民讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C+3" 賽道 - 廣福讓賽</t>
+  </si>
+  <si>
+    <t>國際三級賽 - 1400米 - 草地 - "C+3" 賽道 - 慶典盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C+3" 賽道 - 富泰讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C+3" 賽道 - 興民讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (100-80) - 草地 - "C+3" 賽道 - 長康讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/01</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 成都讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1600米 - (60-40) - 草地 - "A" 賽道 - 南寧讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 草地 - "A" 賽道 - 瀋陽讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "A" 賽道 - 上海讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "A" 賽道 - 濟南讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1400米 - (100-80) - 草地 - "A" 賽道 - 北京讓賽</t>
+  </si>
+  <si>
+    <t>國際三級賽 - 1000米 - 草地 - "A" 賽道 - 國慶盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1600米 - (80-60) - 草地 - "A" 賽道 - 重慶讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 天津讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/06</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 草地 - "A" 賽道 - 盧押讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "A" 賽道 - 柯布連讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "A" 賽道 - 謝斐讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1800米 - (80-60) - 草地 - "A" 賽道 - 港灣讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 莊士敦讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "A" 賽道 - 駱克讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 告士打讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1650米 - (105-80) - 草地 - "A" 賽道 - 菲林明讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/10</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 全天候跑道 - 眾安讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "A+3" 賽道 - 海壩讓賽</t>
+  </si>
+  <si>
+    <t>黃俊</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "A+3" 賽道 - 沙咀讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1400米 - (40-0) - 草地 - "A+3" 賽道 - 大河讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-35) - 全天候跑道 - 德華讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "A+3" 賽道 - 仁濟盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 全天候跑道 - 荃富讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (105-80) - 全天候跑道 - 荃樂讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A+3" 賽道 - 楊屋讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "A+3" 賽道 - 禾笛讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/17</t>
+  </si>
+  <si>
+    <t>第四班 - 2000米 - (60-40) - 草地 - "B+2" 賽道 - GIRARD-PERREGAUX卓越讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "B+2" 賽道 - IWC SCHAFFHAUSEN卓越讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "B+2" 賽道 - H. MOSER &amp; CIE.卓越讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "B+2" 賽道 - GRAND SEIKO卓越讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1800米 - (80-60) - 草地 - "B+2" 賽道 - FRANCK MULLER卓越讓賽</t>
+  </si>
+  <si>
+    <t>國際二級賽 - 1200米 - 草地 - "B+2" 賽道 - 精英碗（讓賽）</t>
+  </si>
+  <si>
+    <t>第二班 - 1800米 - (100-80) - 草地 - "B+2" 賽道 - PARMIGIANI FLEURIER卓越讓賽</t>
+  </si>
+  <si>
+    <t>國際二級賽 - 1600米 - 草地 - "B+2" 賽道 - 東方表行60週年沙田錦標（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "B+2" 賽道 - CORUM卓越讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1200米 - (100-80) - 草地 - "B+2" 賽道 - PIAGET卓越讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/20</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "C" 賽道 - 種福者讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "C" 賽道 - 皆大開心讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 金同德讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C" 賽道 - 勁飛翔讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C" 賽道 - 浪琴表錦標（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 極速駿馬讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "C" 賽道 - 電訊巴打讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/24</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C" 賽道 - 白鷺讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C" 賽道 - 紅鶴讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1400米 - (40-0) - 草地 - "C" 賽道 - 蒼鷺讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1400米 - (60-40) - 草地 - "C" 賽道 - 紅隼讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1600米 - (60-40) - 草地 - "C" 賽道 - 孔雀讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1600米 - (80-60) - 草地 - "C" 賽道 - 香港中華總商會盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第三班 - 1400米 - (80-60) - 草地 - "C" 賽道 - 海鵰讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C" 賽道 - 琵鷺讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1400米 - (100-80) - 草地 - "C" 賽道 - 天鵝讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/27</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 全天候跑道 - 尖尾峰讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1650米 - (105-80) - 全天候跑道 - 尖風山讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 1800米 - (40-0) - 全天候跑道 - 畫眉山讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 全天候跑道 - 田下山讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 全天候跑道 - 釣魚翁讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 全天候跑道 - 石屋山讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 全天候跑道 - 大金鐘讓賽</t>
+  </si>
+  <si>
+    <t>2021/10/31</t>
+  </si>
+  <si>
+    <t>第五班 - 1650米 - (40-0) - 草地 - "C+3" 賽道 - 潮州讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1000米 - (100-80) - 草地 - "C+3" 賽道 - 廣州讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1000米 - (60-40) - 草地 - "C+3" 賽道 - 東莞讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1800米 - (60-40) - 草地 - "C+3" 賽道 - 佛山讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 2200米 - (80-60) - 草地 - "C+3" 賽道 - 廣東讓賽盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "C+3" 賽道 - 惠州讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "C+3" 賽道 - 汕頭讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "C+3" 賽道 - 深圳讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1000米 - (80-60) - 草地 - "C+3" 賽道 - 肇慶讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "C+3" 賽道 - 珠海讓賽</t>
+  </si>
+  <si>
+    <t>2021/11/03</t>
+  </si>
+  <si>
+    <t>第五班 - 1200米 - (40-0) - 草地 - "A" 賽道 - 萬宜讓賽</t>
+  </si>
+  <si>
+    <t>第五班 - 2200米 - (40-0) - 草地 - "A" 賽道 - 金山讓賽</t>
+  </si>
+  <si>
+    <t>第四班 - 1200米 - (60-40) - 草地 - "A" 賽道 - 船灣讓賽</t>
+  </si>
+  <si>
+    <t>第二班 - 1800米 - (100-80) - 草地 - "A" 賽道 - 美國會所挑戰盃（讓賽）</t>
+  </si>
+  <si>
+    <t>第四班 - 1650米 - (60-40) - 草地 - "A" 賽道 - 石梨貝讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1650米 - (80-60) - 草地 - "A" 賽道 - 大欖涌讓賽</t>
+  </si>
+  <si>
+    <t>第三班 - 1200米 - (80-60) - 草地 - "A" 賽道 - 大潭讓賽</t>
+  </si>
+  <si>
+    <t>6-14Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,17 +658,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -315,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,9 +758,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,6 +810,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,14 +1003,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7:X7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +1049,38 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -650,8 +1132,12 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <f>COUNTIF(D2:E2, "&gt;5")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -703,8 +1189,48 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="0">COUNTIF(D3:E3, "&gt;5")</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f>COUNTIF(J:J, "&gt;0")</f>
+        <v>111</v>
+      </c>
+      <c r="U3">
+        <f>COUNTIF(K:K, "&gt;0")</f>
+        <v>83</v>
+      </c>
+      <c r="V3">
+        <f>COUNTIF(L:L, "&gt;0")</f>
+        <v>130</v>
+      </c>
+      <c r="W3">
+        <f>COUNTIF(M:M, "&gt;0")</f>
+        <v>110</v>
+      </c>
+      <c r="X3">
+        <f>COUNTIF(R:R, "&gt;0")</f>
+        <v>114</v>
+      </c>
+      <c r="Y3">
+        <f>COUNTIF(N:N, "&gt;0")</f>
+        <v>96</v>
+      </c>
+      <c r="Z3">
+        <f>COUNTIF(O:O, "&gt;0")</f>
+        <v>116</v>
+      </c>
+      <c r="AA3">
+        <f>COUNTIF(P:P, "&gt;0")</f>
+        <v>76</v>
+      </c>
+      <c r="AB3">
+        <f>COUNTIF(Q:Q, "&gt;0")</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -756,8 +1282,48 @@
       <c r="Q4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f>T3/COUNT($N:$N)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U4" s="1">
+        <f>U3/COUNT($N:$N)</f>
+        <v>0.56081081081081086</v>
+      </c>
+      <c r="V4" s="1">
+        <f>V3/COUNT($N:$N)</f>
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="W4" s="1">
+        <f>W3/COUNT($N:$N)</f>
+        <v>0.7432432432432432</v>
+      </c>
+      <c r="X4" s="1">
+        <f>X3/COUNT($N:$N)</f>
+        <v>0.77027027027027029</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>Y3/COUNT($N:$N)</f>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>Z3/COUNT($N:$N)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>AA3/COUNT($N:$N)</f>
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>AB3/COUNT($N:$N)</f>
+        <v>0.68243243243243246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -809,8 +1375,12 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -862,8 +1432,28 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>COUNTIF(K:K, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f>COUNTIF(L:L, 2)</f>
+        <v>54</v>
+      </c>
+      <c r="W6">
+        <f>COUNTIF(M:M, 2)</f>
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <f>COUNTIF(R:R, 2)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -915,8 +1505,28 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <f>U6/COUNT($N:$N)</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f>V6/COUNT($N:$N)</f>
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="W7" s="1">
+        <f>W6/COUNT($N:$N)</f>
+        <v>0.22972972972972974</v>
+      </c>
+      <c r="X7" s="1">
+        <f>X6/COUNT($N:$N)</f>
+        <v>0.25675675675675674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -968,8 +1578,12 @@
       <c r="Q8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1021,8 +1635,12 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1074,8 +1692,12 @@
       <c r="Q10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1749,12 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1180,8 +1806,12 @@
       <c r="Q12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1233,8 +1863,12 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1286,8 +1920,12 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1339,8 +1977,12 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1392,8 +2034,12 @@
       <c r="Q16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1445,8 +2091,12 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1498,8 +2148,12 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1551,16 +2205,20 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1572,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -1604,16 +2262,20 @@
       <c r="Q20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -1657,16 +2319,20 @@
       <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1678,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
@@ -1710,16 +2376,20 @@
       <c r="Q22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1731,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
@@ -1763,16 +2433,20 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1816,16 +2490,20 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1869,16 +2547,20 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1922,16 +2604,20 @@
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -1975,16 +2661,20 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1996,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -2028,16 +2718,20 @@
       <c r="Q28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -2080,6 +2774,6850 @@
       </c>
       <c r="Q29">
         <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="1">COUNTIF(D67:E67, "&gt;5")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>59</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" t="s">
+        <v>40</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>9</v>
+      </c>
+      <c r="F103">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>9</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>49</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>59</v>
+      </c>
+      <c r="I105" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>101</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>2</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>2</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>163</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>55</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>2</v>
+      </c>
+      <c r="P119">
+        <v>2</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>55</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>2</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>2</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" t="s">
+        <v>55</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s">
+        <v>101</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" t="s">
+        <v>59</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R149" si="2">COUNTIF(D131:E131, "&gt;5")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>2</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>176</v>
+      </c>
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" t="s">
+        <v>69</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <v>12</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>183</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>184</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>12</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" t="s">
+        <v>130</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>188</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" t="s">
+        <v>30</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>54</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>190</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>35</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>190</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" t="s">
+        <v>71</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" t="s">
+        <v>193</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>194</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149" t="s">
+        <v>34</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -66,258 +66,273 @@
     <t xml:space="preserve">第五班 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1000米 </t>
+    <t xml:space="preserve"> 1200米 </t>
+  </si>
+  <si>
+    <t>全天候跑道</t>
+  </si>
+  <si>
+    <t>八心之威</t>
+  </si>
+  <si>
+    <t>黃智弘</t>
+  </si>
+  <si>
+    <t>韋達</t>
+  </si>
+  <si>
+    <t>最多歡笑</t>
+  </si>
+  <si>
+    <t>蔡明紹</t>
+  </si>
+  <si>
+    <t>巫偉傑</t>
+  </si>
+  <si>
+    <t>醒目勇駒</t>
+  </si>
+  <si>
+    <t>董明朗</t>
+  </si>
+  <si>
+    <t>蘇偉賢</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
+  </si>
+  <si>
+    <t>實力哥</t>
+  </si>
+  <si>
+    <t>田泰安</t>
+  </si>
+  <si>
+    <t>大衛希斯</t>
+  </si>
+  <si>
+    <t>澳華威威</t>
+  </si>
+  <si>
+    <t>巴度</t>
+  </si>
+  <si>
+    <t>賀賢</t>
+  </si>
+  <si>
+    <t>鑽飾璀璨</t>
+  </si>
+  <si>
+    <t>廖康銘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 </t>
   </si>
   <si>
     <t>草地</t>
   </si>
   <si>
-    <t>開心馬</t>
-  </si>
-  <si>
-    <t>黃智弘</t>
+    <t>海藍寶</t>
+  </si>
+  <si>
+    <t>伍鵬志</t>
+  </si>
+  <si>
+    <t>揚揚大道</t>
+  </si>
+  <si>
+    <t>鍾易禮</t>
+  </si>
+  <si>
+    <t>羅富全</t>
+  </si>
+  <si>
+    <t>讓愛高飛</t>
+  </si>
+  <si>
+    <t>告東尼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1800米 </t>
+  </si>
+  <si>
+    <t>領航宇宙</t>
+  </si>
+  <si>
+    <t>賀銘年</t>
+  </si>
+  <si>
+    <t>黎昭昇</t>
+  </si>
+  <si>
+    <t>一舖到位</t>
+  </si>
+  <si>
+    <t>潘明輝</t>
+  </si>
+  <si>
+    <t>姚本輝</t>
+  </si>
+  <si>
+    <t>十二神將</t>
+  </si>
+  <si>
+    <t>潘頓</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
+    <t>樂滿貫</t>
+  </si>
+  <si>
+    <t>電子傳奇</t>
   </si>
   <si>
     <t>文家良</t>
   </si>
   <si>
-    <t>鑽石寶寶</t>
-  </si>
-  <si>
-    <t>巴度</t>
-  </si>
-  <si>
-    <t>姚本輝</t>
-  </si>
-  <si>
-    <t>中華威威</t>
-  </si>
-  <si>
-    <t>鍾易禮</t>
-  </si>
-  <si>
-    <t>徐雨石</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">第三班 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1200米 </t>
-  </si>
-  <si>
-    <t>天足貓</t>
-  </si>
-  <si>
-    <t>潘明輝</t>
-  </si>
-  <si>
-    <t>巫偉傑</t>
-  </si>
-  <si>
-    <t>常常有餘</t>
-  </si>
-  <si>
-    <t>田泰安</t>
+    <t>特別美麗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 </t>
+  </si>
+  <si>
+    <t>快狠準</t>
+  </si>
+  <si>
+    <t>艾兆禮</t>
+  </si>
+  <si>
+    <t>佳運發</t>
+  </si>
+  <si>
+    <t>班德禮</t>
+  </si>
+  <si>
+    <t>新力</t>
+  </si>
+  <si>
+    <t>楊明綸</t>
+  </si>
+  <si>
+    <t>鄭俊偉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 </t>
+  </si>
+  <si>
+    <t>昇瀧駒</t>
+  </si>
+  <si>
+    <t>凱旋時光</t>
+  </si>
+  <si>
+    <t>快錢</t>
+  </si>
+  <si>
+    <t>艾道拿</t>
+  </si>
+  <si>
+    <t>蔡約翰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1400米 </t>
+  </si>
+  <si>
+    <t>陽光勇士</t>
+  </si>
+  <si>
+    <t>定數</t>
+  </si>
+  <si>
+    <t>丁冠豪</t>
+  </si>
+  <si>
+    <t>機緣醉夢</t>
+  </si>
+  <si>
+    <t>梁家俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第二班 </t>
+  </si>
+  <si>
+    <t>競駿輝煌</t>
+  </si>
+  <si>
+    <t>馬林</t>
+  </si>
+  <si>
+    <t>幸運遇見</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 </t>
+  </si>
+  <si>
+    <t>亞機拉</t>
+  </si>
+  <si>
+    <t>瑰麗人生</t>
+  </si>
+  <si>
+    <t>呂健威</t>
+  </si>
+  <si>
+    <t>旗幟鬥士</t>
   </si>
   <si>
     <t>方嘉柏</t>
   </si>
   <si>
-    <t>無限美麗</t>
-  </si>
-  <si>
-    <t>潘頓</t>
-  </si>
-  <si>
-    <t>蔡約翰</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1650米 </t>
-  </si>
-  <si>
-    <t>馬上旺</t>
-  </si>
-  <si>
-    <t>艾道拿</t>
-  </si>
-  <si>
-    <t>廖康銘</t>
-  </si>
-  <si>
-    <t>獵狐者威</t>
-  </si>
-  <si>
-    <t>呂健威</t>
-  </si>
-  <si>
-    <t>俏郎中</t>
-  </si>
-  <si>
-    <t>班德禮</t>
-  </si>
-  <si>
-    <t>韋達</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">第四班 </t>
-  </si>
-  <si>
-    <t>合夥奔馳</t>
-  </si>
-  <si>
-    <t>九秒九</t>
-  </si>
-  <si>
-    <t>董明朗</t>
-  </si>
-  <si>
-    <t>千杯敬典</t>
-  </si>
-  <si>
-    <t>蔡明紹</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 </t>
-  </si>
-  <si>
-    <t>皇帝英明</t>
-  </si>
-  <si>
-    <t>人和家盛</t>
+    <t>[田泰安]</t>
+  </si>
+  <si>
+    <t>[告東尼]</t>
+  </si>
+  <si>
+    <t>賽事日期</t>
+  </si>
+  <si>
+    <t>馬場</t>
+  </si>
+  <si>
+    <t>賽日積分</t>
+  </si>
+  <si>
+    <t>開盤賠率</t>
+  </si>
+  <si>
+    <t>沙田</t>
+  </si>
+  <si>
+    <t>跑馬地</t>
   </si>
   <si>
     <t>沈集成</t>
   </si>
   <si>
-    <t>上校</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 </t>
-  </si>
-  <si>
-    <t>精算暴雪</t>
-  </si>
-  <si>
-    <t>旭日昇</t>
-  </si>
-  <si>
-    <t>伍鵬志</t>
-  </si>
-  <si>
-    <t>鈁糖武士</t>
-  </si>
-  <si>
-    <t>陳嘉熙</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t>展宏圖</t>
-  </si>
-  <si>
-    <t>勝利同盟</t>
-  </si>
-  <si>
-    <t>楊明綸</t>
-  </si>
-  <si>
-    <t>丁冠豪</t>
-  </si>
-  <si>
-    <t>春風萬里</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1800米 </t>
-  </si>
-  <si>
-    <t>智取神駒</t>
-  </si>
-  <si>
-    <t>天寅合一</t>
-  </si>
-  <si>
-    <t>告東尼</t>
-  </si>
-  <si>
-    <t>多多勇駒</t>
-  </si>
-  <si>
-    <t>鄭俊偉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">第二班 </t>
-  </si>
-  <si>
-    <t>美麗奔馳</t>
-  </si>
-  <si>
-    <t>好友心得</t>
-  </si>
-  <si>
-    <t>大衛希斯</t>
-  </si>
-  <si>
-    <t>傑出漢子</t>
-  </si>
-  <si>
-    <t>艾兆禮</t>
-  </si>
-  <si>
-    <t>[班德禮]</t>
-  </si>
-  <si>
-    <t>[廖康銘]</t>
-  </si>
-  <si>
-    <t>賽事日期</t>
-  </si>
-  <si>
-    <t>馬場</t>
-  </si>
-  <si>
-    <t>賽日積分</t>
-  </si>
-  <si>
-    <t>開盤賠率</t>
-  </si>
-  <si>
-    <t>跑馬地</t>
-  </si>
-  <si>
-    <t>沙田</t>
-  </si>
-  <si>
-    <t>黎昭昇</t>
-  </si>
-  <si>
     <t>容天鵬</t>
   </si>
   <si>
-    <t>賀賢</t>
-  </si>
-  <si>
     <t>其他練馬師</t>
   </si>
   <si>
-    <t>羅富全</t>
-  </si>
-  <si>
     <t>布文</t>
   </si>
   <si>
@@ -351,7 +366,13 @@
     <t>#其他練馬師</t>
   </si>
   <si>
+    <t>葉楚航</t>
+  </si>
+  <si>
     <t>#其他騎師</t>
+  </si>
+  <si>
+    <t>湯普新</t>
   </si>
   <si>
     <t>周俊樂</t>
@@ -690,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,7 +778,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -772,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -784,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -796,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -808,15 +829,15 @@
         <v>25</v>
       </c>
       <c r="R2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="S2">
-        <v>362</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -825,155 +846,155 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
       <c r="R3">
-        <v>179.5</v>
+        <v>63.5</v>
       </c>
       <c r="S3">
-        <v>407.5</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
       <c r="R4">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="S4">
-        <v>324.5</v>
+        <v>620.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
       <c r="N5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -982,308 +1003,367 @@
         <v>54</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R5">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="S5">
-        <v>106.5</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="R6">
-        <v>130</v>
+        <v>95.5</v>
       </c>
       <c r="S6">
-        <v>1882</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="R7">
-        <v>17</v>
+        <v>35.5</v>
       </c>
       <c r="S7">
-        <v>65.5</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
         <v>42</v>
       </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8">
         <v>69</v>
       </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8">
-        <v>134.5</v>
-      </c>
       <c r="S8">
-        <v>2196</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="R9">
-        <v>73.5</v>
+        <v>47.5</v>
       </c>
       <c r="S9">
-        <v>465</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>24.5</v>
+      </c>
+      <c r="S10">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
         <v>44</v>
       </c>
-      <c r="R10">
-        <v>42</v>
-      </c>
-      <c r="S10">
-        <v>277.5</v>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11">
+        <v>69</v>
+      </c>
+      <c r="S11">
+        <v>149.5</v>
       </c>
     </row>
   </sheetData>
@@ -1318,19 +1398,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1339,971 +1419,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>45364</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>45361</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>45354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45347</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45319</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16">
-        <v>34</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>45312</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18">
-        <v>28</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>45304</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19">
-        <v>36</v>
-      </c>
-      <c r="E19">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>45298</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22">
-        <v>36</v>
-      </c>
-      <c r="E22">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25">
-        <v>34</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>45283</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>45277</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>45270</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>45263</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32">
-        <v>28</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33">
-        <v>28</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>45256</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35">
-        <v>28</v>
-      </c>
-      <c r="E35">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>45249</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36">
-        <v>48</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37">
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>45241</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38">
-        <v>52</v>
-      </c>
-      <c r="E38">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>45235</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40">
-        <v>36</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>45228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42">
-        <v>46</v>
-      </c>
-      <c r="E42">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>45224</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>45221</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44">
-        <v>30</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45">
-        <v>28</v>
-      </c>
-      <c r="E45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46">
-        <v>28</v>
-      </c>
-      <c r="E46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45214</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48">
-        <v>24</v>
-      </c>
-      <c r="E48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49">
-        <v>29</v>
-      </c>
-      <c r="E49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>45200</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>45196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51">
-        <v>38</v>
-      </c>
-      <c r="E51">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>45193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52">
-        <v>36</v>
-      </c>
-      <c r="E52">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>45189</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53">
-        <v>48</v>
-      </c>
-      <c r="E53">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>45186</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54">
-        <v>30</v>
-      </c>
-      <c r="E54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>45182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55">
-        <v>24</v>
-      </c>
-      <c r="E55">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>45179</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56">
-        <v>36</v>
-      </c>
-      <c r="E56">
-        <v>3.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
@@ -2313,87 +1428,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>52</v>
-      </c>
       <c r="E5">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2401,16 +1516,16 @@
         <v>45354</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2418,16 +1533,16 @@
         <v>45350</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2435,16 +1550,16 @@
         <v>45347</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2452,16 +1567,16 @@
         <v>45343</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>4.25</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2469,16 +1584,16 @@
         <v>45340</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2486,16 +1601,16 @@
         <v>45337</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>36</v>
       </c>
       <c r="E11">
-        <v>4.25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2503,16 +1618,16 @@
         <v>45334</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2520,16 +1635,16 @@
         <v>45329</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2537,16 +1652,16 @@
         <v>45326</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>2.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2554,16 +1669,16 @@
         <v>45322</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2571,16 +1686,16 @@
         <v>45319</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>1.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2588,16 +1703,16 @@
         <v>45315</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2605,13 +1720,13 @@
         <v>45312</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1.65</v>
@@ -2622,16 +1737,16 @@
         <v>45308</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2639,13 +1754,13 @@
         <v>45304</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>4.25</v>
@@ -2656,16 +1771,16 @@
         <v>45301</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2673,16 +1788,16 @@
         <v>45298</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2690,16 +1805,16 @@
         <v>45295</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>36</v>
       </c>
       <c r="E23">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2707,16 +1822,16 @@
         <v>45292</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2724,16 +1839,16 @@
         <v>45289</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>5.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2741,16 +1856,16 @@
         <v>45286</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2758,16 +1873,16 @@
         <v>45283</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2775,16 +1890,16 @@
         <v>45280</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2792,16 +1907,16 @@
         <v>45277</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2809,16 +1924,16 @@
         <v>45273</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>7.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2826,16 +1941,16 @@
         <v>45270</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2843,16 +1958,16 @@
         <v>45266</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>8.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2860,16 +1975,16 @@
         <v>45263</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>1.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2877,16 +1992,16 @@
         <v>45259</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2894,16 +2009,16 @@
         <v>45256</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2911,16 +2026,16 @@
         <v>45252</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2928,16 +2043,16 @@
         <v>45249</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D37">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2945,16 +2060,16 @@
         <v>45245</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
       <c r="E38">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2962,16 +2077,16 @@
         <v>45241</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2979,16 +2094,998 @@
         <v>45238</v>
       </c>
       <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41">
         <v>36</v>
       </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48">
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <v>3.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>45283</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2996,30 +3093,30 @@
         <v>45238</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>45235</v>
+        <v>45238</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>6.5</v>
@@ -3027,256 +3124,273 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E43">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D44">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E44">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>45224</v>
+        <v>45228</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>45217</v>
+        <v>45221</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D47">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>45214</v>
+        <v>45217</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D48">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E48">
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>45210</v>
+        <v>45214</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>35</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>45203</v>
+        <v>45210</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>1.7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>45200</v>
+        <v>45203</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>45196</v>
+        <v>45200</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>2.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>45193</v>
+        <v>45196</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D53">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>45189</v>
+        <v>45193</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E54">
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>45186</v>
+        <v>45189</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>45182</v>
+        <v>45186</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>22</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>45179</v>
       </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58">
         <v>48</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>1.4</v>
       </c>
     </row>
@@ -3287,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3295,42 +3409,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -3339,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3347,13 +3461,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -3373,25 +3487,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3399,13 +3513,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -3425,13 +3539,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -3446,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -3472,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -3498,30 +3612,30 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3529,13 +3643,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -3550,18 +3664,18 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3581,42 +3695,42 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3625,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3633,91 +3747,91 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3732,6 +3846,32 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
@@ -3750,45 +3890,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3797,30 +3937,30 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3828,51 +3968,51 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3880,103 +4020,103 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3984,42 +4124,42 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4028,47 +4168,47 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4088,13 +4228,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4109,18 +4249,18 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4135,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
